--- a/ARG_COMPARISON_EXCEL/ARGS_post_order/father_no.xlsx
+++ b/ARG_COMPARISON_EXCEL/ARGS_post_order/father_no.xlsx
@@ -33,7 +33,7 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>280,0.5,11.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.11,0.14,468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14</t>
+    <t>28.0,5.0,0.67,0.47,1.41,0.5,11.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.25,0.07,0.07,0.11,0.04,0.13,0.14,0.14,20.9,18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92</t>
   </si>
   <si>
     <t>arg35680</t>
@@ -45,7 +45,7 @@
     <t>1,0</t>
   </si>
   <si>
-    <t>468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14,359,0.75,9.22,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+    <t>18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92,19.5,4.6,0.93,0.94,0.98,0.75,9.22,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.23,0.09,0.09,0.21,0.0,0.0,0.0,0.0,18.0</t>
   </si>
   <si>
     <t>arg35670</t>
@@ -54,19 +54,19 @@
     <t>arg35679</t>
   </si>
   <si>
-    <t>150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14</t>
+    <t>10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14,18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92</t>
   </si>
   <si>
     <t>arg35673</t>
   </si>
   <si>
-    <t>150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,369,0.75,10.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.05,0.0</t>
+    <t>10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14,19.25,4.79,0.92,0.94,0.97,0.75,10.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.08,0.08,0.13,0.01,0.0,0.0,0.0,21.44</t>
   </si>
   <si>
     <t>arg35690</t>
   </si>
   <si>
-    <t>468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14,322,0.33,12.1,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
+    <t>18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92,21.0,5.11,0.75,0.71,1.06,0.33,12.1,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.25,0.06,0.06,0.08,0.02,0.0,0.0,0.0,13.88</t>
   </si>
   <si>
     <t>arg35718</t>
@@ -75,19 +75,19 @@
     <t>arg35604</t>
   </si>
   <si>
-    <t>610,0.25,14.58,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.16,0.0,230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,610,0.25,14.58,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.16,0.0</t>
-  </si>
-  <si>
-    <t>468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14,230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
+    <t>27.0,5.65,1.29,0.94,1.36,0.25,14.58,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.12,0.19,0.09,0.09,0.08,0.04,0.25,0.0,0.0,8.5,50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14,27.0,5.65,1.29,0.94,1.36,0.25,14.58,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.12,0.19,0.09,0.09,0.08,0.04,0.25,0.0,0.0,8.5</t>
+  </si>
+  <si>
+    <t>18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92,50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71</t>
   </si>
   <si>
     <t>arg35622</t>
   </si>
   <si>
-    <t>150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,504,0.17,10.04,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.45,0.45,0.05,0.14</t>
+    <t>10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14,17.67,4.75,1.26,1.42,0.89,0.17,10.04,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.21,0.07,0.07,0.11,0.01,0.0,0.14,0.14,12.19</t>
   </si>
   <si>
     <t>arg35748</t>
@@ -96,28 +96,28 @@
     <t>arg35652</t>
   </si>
   <si>
-    <t>558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29,367,0.5,12.31,0.0,0.07,2.0,0.0,0.0,0.0,0.2,0.35,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29,359,0.75,9.22,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+    <t>14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68,35.0,5.24,0.83,0.47,1.77,0.5,12.31,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.16,0.04,0.23,0.07,0.07,0.11,0.01,0.0,0.0,0.0,11.11</t>
+  </si>
+  <si>
+    <t>14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68,19.5,4.6,0.93,0.94,0.98,0.75,9.22,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.23,0.09,0.09,0.21,0.0,0.0,0.0,0.0,18.0</t>
   </si>
   <si>
     <t>arg35724</t>
   </si>
   <si>
-    <t>403,3.0,12.38,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14</t>
+    <t>82.0,4.91,0.98,0.24,4.14,3.0,12.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.06,0.06,0.16,0.01,0.0,0.0,0.0,17.0,18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92</t>
   </si>
   <si>
     <t>arg35758</t>
   </si>
   <si>
-    <t>409,1.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.0,0.0,150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
+    <t>43.5,4.7,1.04,0.47,2.2,1.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.18,0.08,0.08,0.07,0.01,0.0,0.0,0.0,13.38,10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14</t>
   </si>
   <si>
     <t>arg35675</t>
   </si>
   <si>
-    <t>470,0.4,9.25,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.11,0.0,610,0.25,14.58,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.16,0.0</t>
+    <t>19.8,4.75,1.18,1.18,1.0,0.4,9.25,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.1,0.2,0.08,0.08,0.13,0.01,0.0,0.0,0.0,13.44,27.0,5.65,1.29,0.94,1.36,0.25,14.58,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.12,0.19,0.09,0.09,0.08,0.04,0.25,0.0,0.0,8.5</t>
   </si>
   <si>
     <t>ed</t>
@@ -141,19 +141,19 @@
     <t>arg35706</t>
   </si>
   <si>
-    <t>380,0.75,11.19,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,545,0.33,12.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>19.0,5.0,0.91,0.94,0.96,0.75,11.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.17,0.11,0.11,0.05,0.01,0.0,0.0,0.0,12.21,17.67,5.14,1.26,1.42,0.89,0.33,12.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.27,0.08,0.08,0.11,0.01,0.0,0.0,0.0,13.05</t>
   </si>
   <si>
     <t>arg35591</t>
   </si>
   <si>
-    <t>230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,435,0.5,11.7,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
+    <t>50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71,21.75,5.0,1.04,0.94,1.1,0.5,11.7,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.28,0.1,0.1,0.15,0.01,0.0,0.0,0.0,22.0</t>
   </si>
   <si>
     <t>arg35633</t>
   </si>
   <si>
-    <t>558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29,430,1.0,10.65,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68,17.0,5.06,1.01,1.18,0.86,1.0,10.65,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.25,0.08,0.08,0.16,0.01,0.0,0.0,0.0,15.15</t>
   </si>
   <si>
     <t>al</t>
@@ -177,37 +177,37 @@
     <t>arg35671</t>
   </si>
   <si>
-    <t>417,1.25,12.44,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,398,1.0,11.14,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
+    <t>20.25,5.15,0.97,0.94,1.02,1.25,12.44,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.11,0.16,0.07,0.07,0.2,0.01,0.0,0.0,0.0,13.0,26.33,5.04,0.94,0.71,1.33,1.0,11.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.06,0.27,0.11,0.11,0.1,0.03,0.0,0.0,0.0,13.35</t>
   </si>
   <si>
     <t>arg35719</t>
   </si>
   <si>
-    <t>230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,516,0.17,10.87,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29</t>
+    <t>50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71,17.33,4.96,1.24,1.42,0.88,0.17,10.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,14.29</t>
+  </si>
+  <si>
+    <t>10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14,14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68</t>
   </si>
   <si>
     <t>arg35645</t>
   </si>
   <si>
-    <t>545,0.33,12.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,325,0.5,12.26,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>403,3.0,12.38,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
+    <t>17.67,5.14,1.26,1.42,0.89,0.33,12.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.27,0.08,0.08,0.11,0.01,0.0,0.0,0.0,13.05,15.5,5.24,0.74,0.94,0.78,0.5,12.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.26,0.05,0.05,0.15,0.02,0.0,0.0,0.0,15.08</t>
+  </si>
+  <si>
+    <t>82.0,4.91,0.98,0.24,4.14,3.0,12.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.06,0.06,0.16,0.01,0.0,0.0,0.0,17.0,50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71</t>
   </si>
   <si>
     <t>arg35705</t>
   </si>
   <si>
-    <t>398,1.0,11.14,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,459,0.0,10.14,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.25,0.3,0.0,0.0</t>
+    <t>26.33,5.04,0.94,0.71,1.33,1.0,11.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.06,0.27,0.11,0.11,0.1,0.03,0.0,0.0,0.0,13.35,24.25,4.73,1.16,0.94,1.22,0.0,10.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.08,0.23,0.08,0.08,0.14,0.01,0.0,0.0,0.0,21.0</t>
   </si>
   <si>
     <t>arg35755</t>
   </si>
   <si>
-    <t>472,0.5,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0,558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29</t>
+    <t>22.5,5.24,1.07,0.94,1.14,0.5,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.19,0.07,0.07,0.08,0.01,0.0,0.0,0.0,12.0,14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68</t>
   </si>
   <si>
     <t>fo</t>
@@ -225,13 +225,13 @@
     <t>shoes of the missing party, but it can and should be done.</t>
   </si>
   <si>
-    <t>369,0.75,10.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.05,0.0,230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,367,0.5,12.31,0.0,0.07,2.0,0.0,0.0,0.0,0.2,0.35,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>459,0.0,10.14,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.25,0.3,0.0,0.0,558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29</t>
+    <t>19.25,4.79,0.92,0.94,0.97,0.75,10.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.08,0.08,0.13,0.01,0.0,0.0,0.0,21.44,50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71,35.0,5.24,0.83,0.47,1.77,0.5,12.31,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.16,0.04,0.23,0.07,0.07,0.11,0.01,0.0,0.0,0.0,11.11</t>
+  </si>
+  <si>
+    <t>24.25,4.73,1.16,0.94,1.22,0.0,10.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.08,0.23,0.08,0.08,0.14,0.01,0.0,0.0,0.0,21.0,14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68</t>
   </si>
   <si>
     <t>s</t>
@@ -249,7 +249,7 @@
     <t>ssing party, but it can and should be done.</t>
   </si>
   <si>
-    <t>610,0.25,14.58,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.16,0.0,369,0.75,10.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.05,0.0</t>
+    <t>27.0,5.65,1.29,0.94,1.36,0.25,14.58,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.12,0.19,0.09,0.09,0.08,0.04,0.25,0.0,0.0,8.5,19.25,4.79,0.92,0.94,0.97,0.75,10.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.08,0.08,0.13,0.01,0.0,0.0,0.0,21.44</t>
   </si>
   <si>
     <t>or</t>
@@ -267,22 +267,22 @@
     <t>arg35713</t>
   </si>
   <si>
-    <t>150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,399,0.33,10.42,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.05,0.0</t>
+    <t>10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14,13.17,5.05,0.94,1.42,0.66,0.33,10.42,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.06,0.08,0.27,0.11,0.11,0.18,0.03,0.0,0.0,0.0,17.91</t>
   </si>
   <si>
     <t>arg35733</t>
   </si>
   <si>
-    <t>468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14,487,0.71,9.53,0.0,0.0,1.0,0.0,0.01,0.0,0.4,0.4,0.4,0.05,0.0</t>
-  </si>
-  <si>
-    <t>558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29,280,0.5,11.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.11,0.14</t>
-  </si>
-  <si>
-    <t>230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29</t>
-  </si>
-  <si>
-    <t>610,0.25,14.58,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.16,0.0,430,1.0,10.65,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92,14.29,4.87,1.19,1.65,0.72,0.71,9.53,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.05,0.23,0.06,0.06,0.13,0.02,0.13,0.0,0.0,15.87</t>
+  </si>
+  <si>
+    <t>14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68,28.0,5.0,0.67,0.47,1.41,0.5,11.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.25,0.07,0.07,0.11,0.04,0.13,0.14,0.14,20.9</t>
+  </si>
+  <si>
+    <t>50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71,14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68</t>
+  </si>
+  <si>
+    <t>27.0,5.65,1.29,0.94,1.36,0.25,14.58,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.12,0.19,0.09,0.09,0.08,0.04,0.25,0.0,0.0,8.5,17.0,5.06,1.01,1.18,0.86,1.0,10.65,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.25,0.08,0.08,0.16,0.01,0.0,0.0,0.0,15.15</t>
   </si>
   <si>
     <t>ad</t>
@@ -297,28 +297,28 @@
     <t>he passed away when I was six. So, I really don't have a favorite side.</t>
   </si>
   <si>
-    <t>322,0.33,12.1,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29</t>
-  </si>
-  <si>
-    <t>504,0.17,10.04,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.45,0.45,0.05,0.14,230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>325,0.5,12.26,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,430,1.0,10.65,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,409,1.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,398,1.0,11.14,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>325,0.5,12.26,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,280,0.5,11.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.11,0.14</t>
+    <t>21.0,5.11,0.75,0.71,1.06,0.33,12.1,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.25,0.06,0.06,0.08,0.02,0.0,0.0,0.0,13.88,14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68</t>
+  </si>
+  <si>
+    <t>17.67,4.75,1.26,1.42,0.89,0.17,10.04,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.21,0.07,0.07,0.11,0.01,0.0,0.14,0.14,12.19,50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>15.5,5.24,0.74,0.94,0.78,0.5,12.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.26,0.05,0.05,0.15,0.02,0.0,0.0,0.0,15.08,17.0,5.06,1.01,1.18,0.86,1.0,10.65,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.25,0.08,0.08,0.16,0.01,0.0,0.0,0.0,15.15</t>
+  </si>
+  <si>
+    <t>50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71,43.5,4.7,1.04,0.47,2.2,1.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.18,0.08,0.08,0.07,0.01,0.0,0.0,0.0,13.38</t>
+  </si>
+  <si>
+    <t>50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71,26.33,5.04,0.94,0.71,1.33,1.0,11.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.06,0.27,0.11,0.11,0.1,0.03,0.0,0.0,0.0,13.35</t>
+  </si>
+  <si>
+    <t>15.5,5.24,0.74,0.94,0.78,0.5,12.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.26,0.05,0.05,0.15,0.02,0.0,0.0,0.0,15.08,28.0,5.0,0.67,0.47,1.41,0.5,11.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.25,0.07,0.07,0.11,0.04,0.13,0.14,0.14,20.9</t>
   </si>
   <si>
     <t>arg35616</t>
   </si>
   <si>
-    <t>358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.16,0.29,610,0.25,14.58,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.16,0.0</t>
+    <t>16.75,5.34,0.8,0.94,0.85,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.16,0.04,0.04,0.09,0.01,0.0,0.29,0.29,12.06,27.0,5.65,1.29,0.94,1.36,0.25,14.58,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.12,0.19,0.09,0.09,0.08,0.04,0.25,0.0,0.0,8.5</t>
   </si>
   <si>
     <t>er</t>
@@ -330,16 +330,16 @@
     <t>ss.</t>
   </si>
   <si>
-    <t>380,0.75,11.19,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14</t>
-  </si>
-  <si>
-    <t>150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,545,0.33,12.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>430,1.0,10.65,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,367,0.5,12.31,0.0,0.07,2.0,0.0,0.0,0.0,0.2,0.35,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>516,0.17,10.87,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,610,0.25,14.58,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.16,0.0</t>
+    <t>19.0,5.0,0.91,0.94,0.96,0.75,11.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.17,0.11,0.11,0.05,0.01,0.0,0.0,0.0,12.21,18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92</t>
+  </si>
+  <si>
+    <t>10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14,17.67,5.14,1.26,1.42,0.89,0.33,12.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.27,0.08,0.08,0.11,0.01,0.0,0.0,0.0,13.05</t>
+  </si>
+  <si>
+    <t>17.0,5.06,1.01,1.18,0.86,1.0,10.65,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.25,0.08,0.08,0.16,0.01,0.0,0.0,0.0,15.15,35.0,5.24,0.83,0.47,1.77,0.5,12.31,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.16,0.04,0.23,0.07,0.07,0.11,0.01,0.0,0.0,0.0,11.11</t>
+  </si>
+  <si>
+    <t>17.33,4.96,1.24,1.42,0.88,0.17,10.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,14.29,27.0,5.65,1.29,0.94,1.36,0.25,14.58,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.12,0.19,0.09,0.09,0.08,0.04,0.25,0.0,0.0,8.5</t>
   </si>
   <si>
     <t>tu</t>
@@ -357,16 +357,16 @@
     <t>(Self-opinion). So yes, as opposed to having a lousy father that would rub off on me and mold me into half a man, I would much rather being fatherless.</t>
   </si>
   <si>
-    <t>380,0.75,11.19,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29</t>
-  </si>
-  <si>
-    <t>545,0.33,12.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,399,0.33,10.42,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.05,0.0</t>
+    <t>19.0,5.0,0.91,0.94,0.96,0.75,11.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.17,0.11,0.11,0.05,0.01,0.0,0.0,0.0,12.21,14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68</t>
+  </si>
+  <si>
+    <t>17.67,5.14,1.26,1.42,0.89,0.33,12.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.27,0.08,0.08,0.11,0.01,0.0,0.0,0.0,13.05,13.17,5.05,0.94,1.42,0.66,0.33,10.42,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.06,0.08,0.27,0.11,0.11,0.18,0.03,0.0,0.0,0.0,17.91</t>
   </si>
   <si>
     <t>arg35737</t>
   </si>
   <si>
-    <t>518,1.2,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,516,0.17,10.87,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>21.4,4.84,1.28,1.18,1.08,1.2,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.21,0.07,0.07,0.09,0.03,0.13,0.0,0.0,11.39,17.33,4.96,1.24,1.42,0.88,0.17,10.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,14.29</t>
   </si>
   <si>
     <t>ra</t>
@@ -384,40 +384,40 @@
     <t>ather, then a father that I cant even trust my life with.</t>
   </si>
   <si>
-    <t>468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14,150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>325,0.5,12.26,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,359,0.75,9.22,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14,472,0.5,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>435,0.5,11.7,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>367,0.5,12.31,0.0,0.07,2.0,0.0,0.0,0.0,0.2,0.35,0.3,0.05,0.0,516,0.17,10.87,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92,10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14</t>
+  </si>
+  <si>
+    <t>15.5,5.24,0.74,0.94,0.78,0.5,12.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.26,0.05,0.05,0.15,0.02,0.0,0.0,0.0,15.08,19.5,4.6,0.93,0.94,0.98,0.75,9.22,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.23,0.09,0.09,0.21,0.0,0.0,0.0,0.0,18.0</t>
+  </si>
+  <si>
+    <t>18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92,22.5,5.24,1.07,0.94,1.14,0.5,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.19,0.07,0.07,0.08,0.01,0.0,0.0,0.0,12.0</t>
+  </si>
+  <si>
+    <t>21.75,5.0,1.04,0.94,1.1,0.5,11.7,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.28,0.1,0.1,0.15,0.01,0.0,0.0,0.0,22.0,10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14</t>
+  </si>
+  <si>
+    <t>35.0,5.24,0.83,0.47,1.77,0.5,12.31,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.16,0.04,0.23,0.07,0.07,0.11,0.01,0.0,0.0,0.0,11.11,17.33,4.96,1.24,1.42,0.88,0.17,10.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,14.29</t>
   </si>
   <si>
     <t>arg35678</t>
   </si>
   <si>
-    <t>468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14,396,0.0,11.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,470,0.4,9.25,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.11,0.0</t>
-  </si>
-  <si>
-    <t>398,1.0,11.14,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29</t>
-  </si>
-  <si>
-    <t>403,3.0,12.38,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,516,0.17,10.87,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92,27.33,4.83,0.98,0.71,1.38,0.0,11.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.24,0.04,0.04,0.15,0.01,0.13,0.0,0.0,9.16</t>
+  </si>
+  <si>
+    <t>10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14,19.8,4.75,1.18,1.18,1.0,0.4,9.25,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.1,0.2,0.08,0.08,0.13,0.01,0.0,0.0,0.0,13.44</t>
+  </si>
+  <si>
+    <t>26.33,5.04,0.94,0.71,1.33,1.0,11.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.06,0.27,0.11,0.11,0.1,0.03,0.0,0.0,0.0,13.35,14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68</t>
+  </si>
+  <si>
+    <t>82.0,4.91,0.98,0.24,4.14,3.0,12.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.06,0.06,0.16,0.01,0.0,0.0,0.0,17.0,17.33,4.96,1.24,1.42,0.88,0.17,10.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,14.29</t>
   </si>
   <si>
     <t>arg35632</t>
   </si>
   <si>
-    <t>536,0.0,12.09,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.11,0.14,472,0.5,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0</t>
+    <t>17.0,5.25,1.22,1.42,0.86,0.0,12.09,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.15,0.25,0.01,0.01,0.09,0.01,0.0,0.14,0.14,12.05,22.5,5.24,1.07,0.94,1.14,0.5,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.19,0.07,0.07,0.08,0.01,0.0,0.0,0.0,12.0</t>
   </si>
   <si>
     <t>he</t>
@@ -435,10 +435,10 @@
     <t>ing a lousy father is the same thing.</t>
   </si>
   <si>
-    <t>536,0.0,12.09,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.11,0.14,230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>396,0.0,11.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,610,0.25,14.58,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.16,0.0</t>
+    <t>17.0,5.25,1.22,1.42,0.86,0.0,12.09,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.15,0.25,0.01,0.01,0.09,0.01,0.0,0.14,0.14,12.05,50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>27.33,4.83,0.98,0.71,1.38,0.0,11.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.24,0.04,0.04,0.15,0.01,0.13,0.0,0.0,9.16,27.0,5.65,1.29,0.94,1.36,0.25,14.58,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.12,0.19,0.09,0.09,0.08,0.04,0.25,0.0,0.0,8.5</t>
   </si>
   <si>
     <t>lf</t>
@@ -456,7 +456,7 @@
     <t>d much rather being fatherless.</t>
   </si>
   <si>
-    <t>430,1.0,10.65,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,536,0.0,12.09,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.11,0.14</t>
+    <t>17.0,5.06,1.01,1.18,0.86,1.0,10.65,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.25,0.08,0.08,0.16,0.01,0.0,0.0,0.0,15.15,17.0,5.25,1.22,1.42,0.86,0.0,12.09,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.15,0.25,0.01,0.01,0.09,0.01,0.0,0.14,0.14,12.05</t>
   </si>
   <si>
     <t>i</t>
@@ -468,16 +468,16 @@
     <t>be.</t>
   </si>
   <si>
-    <t>322,0.33,12.1,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>398,1.0,11.14,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14</t>
+    <t>21.0,5.11,0.75,0.71,1.06,0.33,12.1,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.25,0.06,0.06,0.08,0.02,0.0,0.0,0.0,13.88,50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>26.33,5.04,0.94,0.71,1.33,1.0,11.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.06,0.27,0.11,0.11,0.1,0.03,0.0,0.0,0.0,13.35,18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92</t>
   </si>
   <si>
     <t>arg35606</t>
   </si>
   <si>
-    <t>504,0.17,10.04,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.45,0.45,0.05,0.14,456,0.2,9.69,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.55,0.55,0.0,0.0</t>
+    <t>17.67,4.75,1.26,1.42,0.89,0.17,10.04,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.21,0.07,0.07,0.11,0.01,0.0,0.14,0.14,12.19,19.6,4.65,1.17,1.18,0.99,0.2,9.69,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.23,0.04,0.04,0.15,0.01,0.0,0.0,0.0,15.29</t>
   </si>
   <si>
     <t>ba</t>
@@ -489,37 +489,37 @@
     <t>.</t>
   </si>
   <si>
-    <t>150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,456,0.2,9.69,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.55,0.55,0.0,0.0</t>
-  </si>
-  <si>
-    <t>230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,518,1.2,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>367,0.5,12.31,0.0,0.07,2.0,0.0,0.0,0.0,0.2,0.35,0.3,0.05,0.0,399,0.33,10.42,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,516,0.17,10.87,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>322,0.33,12.1,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,399,0.33,10.42,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>369,0.75,10.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.05,0.0,435,0.5,11.7,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>280,0.5,11.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.11,0.14,430,1.0,10.65,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>417,1.25,12.44,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.16,0.29</t>
-  </si>
-  <si>
-    <t>430,1.0,10.65,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,516,0.17,10.87,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>409,1.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.0,0.0,468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14</t>
-  </si>
-  <si>
-    <t>516,0.17,10.87,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29</t>
+    <t>10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14,19.6,4.65,1.17,1.18,0.99,0.2,9.69,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.23,0.04,0.04,0.15,0.01,0.0,0.0,0.0,15.29</t>
+  </si>
+  <si>
+    <t>50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71,21.4,4.84,1.28,1.18,1.08,1.2,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.21,0.07,0.07,0.09,0.03,0.13,0.0,0.0,11.39</t>
+  </si>
+  <si>
+    <t>35.0,5.24,0.83,0.47,1.77,0.5,12.31,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.16,0.04,0.23,0.07,0.07,0.11,0.01,0.0,0.0,0.0,11.11,13.17,5.05,0.94,1.42,0.66,0.33,10.42,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.06,0.08,0.27,0.11,0.11,0.18,0.03,0.0,0.0,0.0,17.91</t>
+  </si>
+  <si>
+    <t>10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14,17.33,4.96,1.24,1.42,0.88,0.17,10.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,14.29</t>
+  </si>
+  <si>
+    <t>21.0,5.11,0.75,0.71,1.06,0.33,12.1,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.25,0.06,0.06,0.08,0.02,0.0,0.0,0.0,13.88,13.17,5.05,0.94,1.42,0.66,0.33,10.42,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.06,0.08,0.27,0.11,0.11,0.18,0.03,0.0,0.0,0.0,17.91</t>
+  </si>
+  <si>
+    <t>19.25,4.79,0.92,0.94,0.97,0.75,10.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.08,0.08,0.13,0.01,0.0,0.0,0.0,21.44,21.75,5.0,1.04,0.94,1.1,0.5,11.7,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.28,0.1,0.1,0.15,0.01,0.0,0.0,0.0,22.0</t>
+  </si>
+  <si>
+    <t>28.0,5.0,0.67,0.47,1.41,0.5,11.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.25,0.07,0.07,0.11,0.04,0.13,0.14,0.14,20.9,17.0,5.06,1.01,1.18,0.86,1.0,10.65,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.25,0.08,0.08,0.16,0.01,0.0,0.0,0.0,15.15</t>
+  </si>
+  <si>
+    <t>20.25,5.15,0.97,0.94,1.02,1.25,12.44,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.11,0.16,0.07,0.07,0.2,0.01,0.0,0.0,0.0,13.0,16.75,5.34,0.8,0.94,0.85,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.16,0.04,0.04,0.09,0.01,0.0,0.29,0.29,12.06</t>
+  </si>
+  <si>
+    <t>17.0,5.06,1.01,1.18,0.86,1.0,10.65,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.25,0.08,0.08,0.16,0.01,0.0,0.0,0.0,15.15,17.33,4.96,1.24,1.42,0.88,0.17,10.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,14.29</t>
+  </si>
+  <si>
+    <t>43.5,4.7,1.04,0.47,2.2,1.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.18,0.08,0.08,0.07,0.01,0.0,0.0,0.0,13.38,18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92</t>
+  </si>
+  <si>
+    <t>17.33,4.96,1.24,1.42,0.88,0.17,10.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,14.29,14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68</t>
   </si>
   <si>
     <t>l</t>
@@ -537,16 +537,16 @@
     <t>es, it will take much effort to fill the shoes of the missing party, but it can and should be done.</t>
   </si>
   <si>
-    <t>230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,396,0.0,11.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>417,1.25,12.44,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,487,0.71,9.53,0.0,0.0,1.0,0.0,0.01,0.0,0.4,0.4,0.4,0.05,0.0</t>
-  </si>
-  <si>
-    <t>504,0.17,10.04,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.45,0.45,0.05,0.14,396,0.0,11.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29,468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14</t>
+    <t>50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71,27.33,4.83,0.98,0.71,1.38,0.0,11.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.24,0.04,0.04,0.15,0.01,0.13,0.0,0.0,9.16</t>
+  </si>
+  <si>
+    <t>20.25,5.15,0.97,0.94,1.02,1.25,12.44,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.11,0.16,0.07,0.07,0.2,0.01,0.0,0.0,0.0,13.0,14.29,4.87,1.19,1.65,0.72,0.71,9.53,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.05,0.23,0.06,0.06,0.13,0.02,0.13,0.0,0.0,15.87</t>
+  </si>
+  <si>
+    <t>17.67,4.75,1.26,1.42,0.89,0.17,10.04,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.21,0.07,0.07,0.11,0.01,0.0,0.14,0.14,12.19,27.33,4.83,0.98,0.71,1.38,0.0,11.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.24,0.04,0.04,0.15,0.01,0.13,0.0,0.0,9.16</t>
+  </si>
+  <si>
+    <t>14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68,18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92</t>
   </si>
   <si>
     <t>I</t>
@@ -561,40 +561,40 @@
     <t>him never exist than come in and out of my life.</t>
   </si>
   <si>
-    <t>325,0.5,12.26,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,472,0.5,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>359,0.75,9.22,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
+    <t>15.5,5.24,0.74,0.94,0.78,0.5,12.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.26,0.05,0.05,0.15,0.02,0.0,0.0,0.0,15.08,22.5,5.24,1.07,0.94,1.14,0.5,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.19,0.07,0.07,0.08,0.01,0.0,0.0,0.0,12.0</t>
+  </si>
+  <si>
+    <t>19.5,4.6,0.93,0.94,0.98,0.75,9.22,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.23,0.09,0.09,0.21,0.0,0.0,0.0,0.0,18.0,50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71</t>
   </si>
   <si>
     <t>arg35648</t>
   </si>
   <si>
-    <t>358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.16,0.29,289,0.5,11.07,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>289,0.5,11.07,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,398,1.0,11.14,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>359,0.75,9.22,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14</t>
-  </si>
-  <si>
-    <t>280,0.5,11.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.11,0.14,516,0.17,10.87,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>504,0.17,10.04,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.45,0.45,0.05,0.14,367,0.5,12.31,0.0,0.07,2.0,0.0,0.0,0.0,0.2,0.35,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14,358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.16,0.29</t>
-  </si>
-  <si>
-    <t>230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.16,0.29</t>
-  </si>
-  <si>
-    <t>558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29,289,0.5,11.07,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>409,1.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.0,0.0,558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29</t>
+    <t>16.75,5.34,0.8,0.94,0.85,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.16,0.04,0.04,0.09,0.01,0.0,0.29,0.29,12.06,14.0,5.16,0.67,0.94,0.71,0.5,11.07,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.27,0.11,0.11,0.14,0.02,0.0,0.0,0.0,22.44</t>
+  </si>
+  <si>
+    <t>14.0,5.16,0.67,0.94,0.71,0.5,11.07,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.27,0.11,0.11,0.14,0.02,0.0,0.0,0.0,22.44,26.33,5.04,0.94,0.71,1.33,1.0,11.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.06,0.27,0.11,0.11,0.1,0.03,0.0,0.0,0.0,13.35</t>
+  </si>
+  <si>
+    <t>19.5,4.6,0.93,0.94,0.98,0.75,9.22,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.23,0.09,0.09,0.21,0.0,0.0,0.0,0.0,18.0,18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92</t>
+  </si>
+  <si>
+    <t>28.0,5.0,0.67,0.47,1.41,0.5,11.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.25,0.07,0.07,0.11,0.04,0.13,0.14,0.14,20.9,17.33,4.96,1.24,1.42,0.88,0.17,10.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,14.29</t>
+  </si>
+  <si>
+    <t>17.67,4.75,1.26,1.42,0.89,0.17,10.04,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.21,0.07,0.07,0.11,0.01,0.0,0.14,0.14,12.19,35.0,5.24,0.83,0.47,1.77,0.5,12.31,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.16,0.04,0.23,0.07,0.07,0.11,0.01,0.0,0.0,0.0,11.11</t>
+  </si>
+  <si>
+    <t>18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92,16.75,5.34,0.8,0.94,0.85,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.16,0.04,0.04,0.09,0.01,0.0,0.29,0.29,12.06</t>
+  </si>
+  <si>
+    <t>50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71,16.75,5.34,0.8,0.94,0.85,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.16,0.04,0.04,0.09,0.01,0.0,0.29,0.29,12.06</t>
+  </si>
+  <si>
+    <t>14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68,14.0,5.16,0.67,0.94,0.71,0.5,11.07,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.27,0.11,0.11,0.14,0.02,0.0,0.0,0.0,22.44</t>
+  </si>
+  <si>
+    <t>43.5,4.7,1.04,0.47,2.2,1.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.18,0.08,0.08,0.07,0.01,0.0,0.0,0.0,13.38,14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68</t>
   </si>
   <si>
     <t>ld</t>
@@ -609,34 +609,34 @@
     <t>e.</t>
   </si>
   <si>
-    <t>289,0.5,11.07,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14</t>
-  </si>
-  <si>
-    <t>369,0.75,10.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.05,0.0,430,1.0,10.65,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>399,0.33,10.42,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.05,0.0,359,0.75,9.22,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>403,3.0,12.38,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29</t>
+    <t>14.0,5.16,0.67,0.94,0.71,0.5,11.07,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.27,0.11,0.11,0.14,0.02,0.0,0.0,0.0,22.44,18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92</t>
+  </si>
+  <si>
+    <t>19.25,4.79,0.92,0.94,0.97,0.75,10.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.08,0.08,0.13,0.01,0.0,0.0,0.0,21.44,17.0,5.06,1.01,1.18,0.86,1.0,10.65,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.25,0.08,0.08,0.16,0.01,0.0,0.0,0.0,15.15</t>
+  </si>
+  <si>
+    <t>13.17,5.05,0.94,1.42,0.66,0.33,10.42,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.06,0.08,0.27,0.11,0.11,0.18,0.03,0.0,0.0,0.0,17.91,19.5,4.6,0.93,0.94,0.98,0.75,9.22,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.23,0.09,0.09,0.21,0.0,0.0,0.0,0.0,18.0</t>
+  </si>
+  <si>
+    <t>82.0,4.91,0.98,0.24,4.14,3.0,12.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.06,0.06,0.16,0.01,0.0,0.0,0.0,17.0,14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68</t>
   </si>
   <si>
     <t>ne</t>
   </si>
   <si>
-    <t>459,0.0,10.14,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.25,0.3,0.0,0.0,468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14</t>
-  </si>
-  <si>
-    <t>325,0.5,12.26,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,403,3.0,12.38,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>367,0.5,12.31,0.0,0.07,2.0,0.0,0.0,0.0,0.2,0.35,0.3,0.05,0.0,359,0.75,9.22,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>504,0.17,10.04,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.45,0.45,0.05,0.14,369,0.75,10.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.05,0.0</t>
-  </si>
-  <si>
-    <t>472,0.5,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0,610,0.25,14.58,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.16,0.0</t>
+    <t>24.25,4.73,1.16,0.94,1.22,0.0,10.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.08,0.23,0.08,0.08,0.14,0.01,0.0,0.0,0.0,21.0,18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92</t>
+  </si>
+  <si>
+    <t>15.5,5.24,0.74,0.94,0.78,0.5,12.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.26,0.05,0.05,0.15,0.02,0.0,0.0,0.0,15.08,82.0,4.91,0.98,0.24,4.14,3.0,12.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.06,0.06,0.16,0.01,0.0,0.0,0.0,17.0</t>
+  </si>
+  <si>
+    <t>35.0,5.24,0.83,0.47,1.77,0.5,12.31,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.16,0.04,0.23,0.07,0.07,0.11,0.01,0.0,0.0,0.0,11.11,19.5,4.6,0.93,0.94,0.98,0.75,9.22,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.23,0.09,0.09,0.21,0.0,0.0,0.0,0.0,18.0</t>
+  </si>
+  <si>
+    <t>17.67,4.75,1.26,1.42,0.89,0.17,10.04,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.21,0.07,0.07,0.11,0.01,0.0,0.14,0.14,12.19,19.25,4.79,0.92,0.94,0.97,0.75,10.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.08,0.08,0.13,0.01,0.0,0.0,0.0,21.44</t>
+  </si>
+  <si>
+    <t>22.5,5.24,1.07,0.94,1.14,0.5,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.19,0.07,0.07,0.08,0.01,0.0,0.0,0.0,12.0,27.0,5.65,1.29,0.94,1.36,0.25,14.58,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.12,0.19,0.09,0.09,0.08,0.04,0.25,0.0,0.0,8.5</t>
   </si>
   <si>
     <t>as</t>
@@ -654,13 +654,13 @@
     <t>ving a lousy father that would rub off on me and mold me into half a man, I would much rather being fatherless.</t>
   </si>
   <si>
-    <t>280,0.5,11.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.11,0.14,435,0.5,11.7,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>518,1.2,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,367,0.5,12.31,0.0,0.07,2.0,0.0,0.0,0.0,0.2,0.35,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29,487,0.71,9.53,0.0,0.0,1.0,0.0,0.01,0.0,0.4,0.4,0.4,0.05,0.0</t>
+    <t>28.0,5.0,0.67,0.47,1.41,0.5,11.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.25,0.07,0.07,0.11,0.04,0.13,0.14,0.14,20.9,21.75,5.0,1.04,0.94,1.1,0.5,11.7,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.28,0.1,0.1,0.15,0.01,0.0,0.0,0.0,22.0</t>
+  </si>
+  <si>
+    <t>21.4,4.84,1.28,1.18,1.08,1.2,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.21,0.07,0.07,0.09,0.03,0.13,0.0,0.0,11.39,35.0,5.24,0.83,0.47,1.77,0.5,12.31,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.16,0.04,0.23,0.07,0.07,0.11,0.01,0.0,0.0,0.0,11.11</t>
+  </si>
+  <si>
+    <t>14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68,14.29,4.87,1.19,1.65,0.72,0.71,9.53,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.05,0.23,0.06,0.06,0.13,0.02,0.13,0.0,0.0,15.87</t>
   </si>
   <si>
     <t>have</t>
@@ -672,13 +672,13 @@
     <t>er who want to pay attention to me and actually be supportive of me.</t>
   </si>
   <si>
-    <t>459,0.0,10.14,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.25,0.3,0.0,0.0,430,1.0,10.65,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>24.25,4.73,1.16,0.94,1.22,0.0,10.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.08,0.23,0.08,0.08,0.14,0.01,0.0,0.0,0.0,21.0,17.0,5.06,1.01,1.18,0.86,1.0,10.65,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.25,0.08,0.08,0.16,0.01,0.0,0.0,0.0,15.15</t>
   </si>
   <si>
     <t>arg35703</t>
   </si>
   <si>
-    <t>558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29,459,0.0,10.14,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.25,0.3,0.0,0.0</t>
+    <t>14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68,24.25,4.73,1.16,0.94,1.22,0.0,10.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.08,0.23,0.08,0.08,0.14,0.01,0.0,0.0,0.0,21.0</t>
   </si>
   <si>
     <t>f</t>
@@ -696,16 +696,16 @@
     <t>life then to have a lousy father figure.</t>
   </si>
   <si>
-    <t>459,0.0,10.14,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.25,0.3,0.0,0.0,456,0.2,9.69,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.55,0.55,0.0,0.0</t>
-  </si>
-  <si>
-    <t>430,1.0,10.65,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,380,0.75,11.19,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14,459,0.0,10.14,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>518,1.2,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14</t>
+    <t>24.25,4.73,1.16,0.94,1.22,0.0,10.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.08,0.23,0.08,0.08,0.14,0.01,0.0,0.0,0.0,21.0,19.6,4.65,1.17,1.18,0.99,0.2,9.69,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.23,0.04,0.04,0.15,0.01,0.0,0.0,0.0,15.29</t>
+  </si>
+  <si>
+    <t>17.0,5.06,1.01,1.18,0.86,1.0,10.65,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.25,0.08,0.08,0.16,0.01,0.0,0.0,0.0,15.15,19.0,5.0,0.91,0.94,0.96,0.75,11.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.17,0.11,0.11,0.05,0.01,0.0,0.0,0.0,12.21</t>
+  </si>
+  <si>
+    <t>18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92,24.25,4.73,1.16,0.94,1.22,0.0,10.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.08,0.23,0.08,0.08,0.14,0.01,0.0,0.0,0.0,21.0</t>
+  </si>
+  <si>
+    <t>21.4,4.84,1.28,1.18,1.08,1.2,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.21,0.07,0.07,0.09,0.03,0.13,0.0,0.0,11.39,18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92</t>
   </si>
   <si>
     <t>me</t>
@@ -720,58 +720,58 @@
     <t>my life.</t>
   </si>
   <si>
-    <t>230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,289,0.5,11.07,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>289,0.5,11.07,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,399,0.33,10.42,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,459,0.0,10.14,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>369,0.75,10.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.05,0.0,459,0.0,10.14,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,325,0.5,12.26,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>359,0.75,9.22,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>536,0.0,12.09,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.11,0.14,150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>280,0.5,11.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.11,0.14,150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>322,0.33,12.1,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,459,0.0,10.14,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>536,0.0,12.09,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.11,0.14,289,0.5,11.07,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29,399,0.33,10.42,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>409,1.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.0,0.0,322,0.33,12.1,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>536,0.0,12.09,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.11,0.14,359,0.75,9.22,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>399,0.33,10.42,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.05,0.0,417,1.25,12.44,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>325,0.5,12.26,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,610,0.25,14.58,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.16,0.0</t>
-  </si>
-  <si>
-    <t>358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.16,0.29,468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14</t>
-  </si>
-  <si>
-    <t>396,0.0,11.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14</t>
-  </si>
-  <si>
-    <t>518,1.2,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,545,0.33,12.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71,14.0,5.16,0.67,0.94,0.71,0.5,11.07,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.27,0.11,0.11,0.14,0.02,0.0,0.0,0.0,22.44</t>
+  </si>
+  <si>
+    <t>14.0,5.16,0.67,0.94,0.71,0.5,11.07,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.27,0.11,0.11,0.14,0.02,0.0,0.0,0.0,22.44,13.17,5.05,0.94,1.42,0.66,0.33,10.42,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.06,0.08,0.27,0.11,0.11,0.18,0.03,0.0,0.0,0.0,17.91</t>
+  </si>
+  <si>
+    <t>50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71,24.25,4.73,1.16,0.94,1.22,0.0,10.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.08,0.23,0.08,0.08,0.14,0.01,0.0,0.0,0.0,21.0</t>
+  </si>
+  <si>
+    <t>19.25,4.79,0.92,0.94,0.97,0.75,10.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.08,0.08,0.13,0.01,0.0,0.0,0.0,21.44,24.25,4.73,1.16,0.94,1.22,0.0,10.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.08,0.23,0.08,0.08,0.14,0.01,0.0,0.0,0.0,21.0</t>
+  </si>
+  <si>
+    <t>10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14,15.5,5.24,0.74,0.94,0.78,0.5,12.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.26,0.05,0.05,0.15,0.02,0.0,0.0,0.0,15.08</t>
+  </si>
+  <si>
+    <t>19.5,4.6,0.93,0.94,0.98,0.75,9.22,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.23,0.09,0.09,0.21,0.0,0.0,0.0,0.0,18.0,10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14</t>
+  </si>
+  <si>
+    <t>17.0,5.25,1.22,1.42,0.86,0.0,12.09,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.15,0.25,0.01,0.01,0.09,0.01,0.0,0.14,0.14,12.05,10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14</t>
+  </si>
+  <si>
+    <t>28.0,5.0,0.67,0.47,1.41,0.5,11.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.25,0.07,0.07,0.11,0.04,0.13,0.14,0.14,20.9,10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14</t>
+  </si>
+  <si>
+    <t>21.0,5.11,0.75,0.71,1.06,0.33,12.1,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.25,0.06,0.06,0.08,0.02,0.0,0.0,0.0,13.88,24.25,4.73,1.16,0.94,1.22,0.0,10.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.08,0.23,0.08,0.08,0.14,0.01,0.0,0.0,0.0,21.0</t>
+  </si>
+  <si>
+    <t>17.0,5.25,1.22,1.42,0.86,0.0,12.09,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.15,0.25,0.01,0.01,0.09,0.01,0.0,0.14,0.14,12.05,14.0,5.16,0.67,0.94,0.71,0.5,11.07,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.27,0.11,0.11,0.14,0.02,0.0,0.0,0.0,22.44</t>
+  </si>
+  <si>
+    <t>14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68,13.17,5.05,0.94,1.42,0.66,0.33,10.42,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.06,0.08,0.27,0.11,0.11,0.18,0.03,0.0,0.0,0.0,17.91</t>
+  </si>
+  <si>
+    <t>43.5,4.7,1.04,0.47,2.2,1.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.18,0.08,0.08,0.07,0.01,0.0,0.0,0.0,13.38,21.0,5.11,0.75,0.71,1.06,0.33,12.1,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.25,0.06,0.06,0.08,0.02,0.0,0.0,0.0,13.88</t>
+  </si>
+  <si>
+    <t>17.0,5.25,1.22,1.42,0.86,0.0,12.09,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.15,0.25,0.01,0.01,0.09,0.01,0.0,0.14,0.14,12.05,19.5,4.6,0.93,0.94,0.98,0.75,9.22,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.23,0.09,0.09,0.21,0.0,0.0,0.0,0.0,18.0</t>
+  </si>
+  <si>
+    <t>13.17,5.05,0.94,1.42,0.66,0.33,10.42,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.06,0.08,0.27,0.11,0.11,0.18,0.03,0.0,0.0,0.0,17.91,20.25,5.15,0.97,0.94,1.02,1.25,12.44,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.11,0.16,0.07,0.07,0.2,0.01,0.0,0.0,0.0,13.0</t>
+  </si>
+  <si>
+    <t>15.5,5.24,0.74,0.94,0.78,0.5,12.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.26,0.05,0.05,0.15,0.02,0.0,0.0,0.0,15.08,27.0,5.65,1.29,0.94,1.36,0.25,14.58,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.12,0.19,0.09,0.09,0.08,0.04,0.25,0.0,0.0,8.5</t>
+  </si>
+  <si>
+    <t>16.75,5.34,0.8,0.94,0.85,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.16,0.04,0.04,0.09,0.01,0.0,0.29,0.29,12.06,18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92</t>
+  </si>
+  <si>
+    <t>27.33,4.83,0.98,0.71,1.38,0.0,11.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.24,0.04,0.04,0.15,0.01,0.13,0.0,0.0,9.16,18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92</t>
+  </si>
+  <si>
+    <t>21.4,4.84,1.28,1.18,1.08,1.2,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.21,0.07,0.07,0.09,0.03,0.13,0.0,0.0,11.39,17.67,5.14,1.26,1.42,0.89,0.33,12.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.27,0.08,0.08,0.11,0.01,0.0,0.0,0.0,13.05</t>
   </si>
   <si>
     <t>r</t>
@@ -786,22 +786,22 @@
     <t>And theres always going to be other people by your side helping you get through life.</t>
   </si>
   <si>
-    <t>369,0.75,10.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.05,0.0,359,0.75,9.22,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>417,1.25,12.44,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,545,0.33,12.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>19.25,4.79,0.92,0.94,0.97,0.75,10.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.08,0.08,0.13,0.01,0.0,0.0,0.0,21.44,19.5,4.6,0.93,0.94,0.98,0.75,9.22,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.23,0.09,0.09,0.21,0.0,0.0,0.0,0.0,18.0</t>
+  </si>
+  <si>
+    <t>20.25,5.15,0.97,0.94,1.02,1.25,12.44,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.11,0.16,0.07,0.07,0.2,0.01,0.0,0.0,0.0,13.0,17.67,5.14,1.26,1.42,0.89,0.33,12.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.27,0.08,0.08,0.11,0.01,0.0,0.0,0.0,13.05</t>
   </si>
   <si>
     <t>if</t>
   </si>
   <si>
-    <t>459,0.0,10.14,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.25,0.3,0.0,0.0,150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29,396,0.0,11.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>610,0.25,14.58,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.16,0.0,456,0.2,9.69,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.55,0.55,0.0,0.0</t>
+    <t>24.25,4.73,1.16,0.94,1.22,0.0,10.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.08,0.23,0.08,0.08,0.14,0.01,0.0,0.0,0.0,21.0,10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14</t>
+  </si>
+  <si>
+    <t>14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68,27.33,4.83,0.98,0.71,1.38,0.0,11.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.24,0.04,0.04,0.15,0.01,0.13,0.0,0.0,9.16</t>
+  </si>
+  <si>
+    <t>27.0,5.65,1.29,0.94,1.36,0.25,14.58,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.12,0.19,0.09,0.09,0.08,0.04,0.25,0.0,0.0,8.5,19.6,4.65,1.17,1.18,0.99,0.2,9.69,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.23,0.04,0.04,0.15,0.01,0.0,0.0,0.0,15.29</t>
   </si>
   <si>
     <t>r,</t>
@@ -816,25 +816,25 @@
     <t>him he better step up and be the dad I know he can be or get out the house a never come back.</t>
   </si>
   <si>
-    <t>230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14</t>
-  </si>
-  <si>
-    <t>289,0.5,11.07,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,518,1.2,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>325,0.5,12.26,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14</t>
-  </si>
-  <si>
-    <t>417,1.25,12.44,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,369,0.75,10.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.05,0.0</t>
-  </si>
-  <si>
-    <t>322,0.33,12.1,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14</t>
-  </si>
-  <si>
-    <t>504,0.17,10.04,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.45,0.45,0.05,0.14,280,0.5,11.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.11,0.14</t>
-  </si>
-  <si>
-    <t>545,0.33,12.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,435,0.5,11.7,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
+    <t>50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71,18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92</t>
+  </si>
+  <si>
+    <t>14.0,5.16,0.67,0.94,0.71,0.5,11.07,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.27,0.11,0.11,0.14,0.02,0.0,0.0,0.0,22.44,21.4,4.84,1.28,1.18,1.08,1.2,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.21,0.07,0.07,0.09,0.03,0.13,0.0,0.0,11.39</t>
+  </si>
+  <si>
+    <t>15.5,5.24,0.74,0.94,0.78,0.5,12.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.26,0.05,0.05,0.15,0.02,0.0,0.0,0.0,15.08,18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92</t>
+  </si>
+  <si>
+    <t>20.25,5.15,0.97,0.94,1.02,1.25,12.44,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.11,0.16,0.07,0.07,0.2,0.01,0.0,0.0,0.0,13.0,19.25,4.79,0.92,0.94,0.97,0.75,10.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.08,0.08,0.13,0.01,0.0,0.0,0.0,21.44</t>
+  </si>
+  <si>
+    <t>21.0,5.11,0.75,0.71,1.06,0.33,12.1,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.25,0.06,0.06,0.08,0.02,0.0,0.0,0.0,13.88,18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92</t>
+  </si>
+  <si>
+    <t>17.67,4.75,1.26,1.42,0.89,0.17,10.04,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.21,0.07,0.07,0.11,0.01,0.0,0.14,0.14,12.19,28.0,5.0,0.67,0.47,1.41,0.5,11.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.25,0.07,0.07,0.11,0.04,0.13,0.14,0.14,20.9</t>
+  </si>
+  <si>
+    <t>17.67,5.14,1.26,1.42,0.89,0.33,12.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.27,0.08,0.08,0.11,0.01,0.0,0.0,0.0,13.05,21.75,5.0,1.04,0.94,1.1,0.5,11.7,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.28,0.1,0.1,0.15,0.01,0.0,0.0,0.0,22.0</t>
   </si>
   <si>
     <t>is</t>
@@ -852,28 +852,28 @@
     <t>father.</t>
   </si>
   <si>
-    <t>456,0.2,9.69,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.55,0.55,0.0,0.0,358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.16,0.29</t>
-  </si>
-  <si>
-    <t>359,0.75,9.22,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,409,1.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>470,0.4,9.25,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.11,0.0,430,1.0,10.65,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>456,0.2,9.69,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.55,0.55,0.0,0.0,558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29</t>
-  </si>
-  <si>
-    <t>459,0.0,10.14,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.25,0.3,0.0,0.0,396,0.0,11.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29,358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.16,0.29</t>
-  </si>
-  <si>
-    <t>280,0.5,11.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.11,0.14,417,1.25,12.44,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>487,0.71,9.53,0.0,0.0,1.0,0.0,0.01,0.0,0.4,0.4,0.4,0.05,0.0,516,0.17,10.87,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>19.6,4.65,1.17,1.18,0.99,0.2,9.69,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.23,0.04,0.04,0.15,0.01,0.0,0.0,0.0,15.29,16.75,5.34,0.8,0.94,0.85,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.16,0.04,0.04,0.09,0.01,0.0,0.29,0.29,12.06</t>
+  </si>
+  <si>
+    <t>19.5,4.6,0.93,0.94,0.98,0.75,9.22,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.23,0.09,0.09,0.21,0.0,0.0,0.0,0.0,18.0,43.5,4.7,1.04,0.47,2.2,1.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.18,0.08,0.08,0.07,0.01,0.0,0.0,0.0,13.38</t>
+  </si>
+  <si>
+    <t>19.8,4.75,1.18,1.18,1.0,0.4,9.25,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.1,0.2,0.08,0.08,0.13,0.01,0.0,0.0,0.0,13.44,17.0,5.06,1.01,1.18,0.86,1.0,10.65,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.25,0.08,0.08,0.16,0.01,0.0,0.0,0.0,15.15</t>
+  </si>
+  <si>
+    <t>19.6,4.65,1.17,1.18,0.99,0.2,9.69,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.23,0.04,0.04,0.15,0.01,0.0,0.0,0.0,15.29,14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68</t>
+  </si>
+  <si>
+    <t>24.25,4.73,1.16,0.94,1.22,0.0,10.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.08,0.23,0.08,0.08,0.14,0.01,0.0,0.0,0.0,21.0,27.33,4.83,0.98,0.71,1.38,0.0,11.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.24,0.04,0.04,0.15,0.01,0.13,0.0,0.0,9.16</t>
+  </si>
+  <si>
+    <t>14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68,16.75,5.34,0.8,0.94,0.85,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.16,0.04,0.04,0.09,0.01,0.0,0.29,0.29,12.06</t>
+  </si>
+  <si>
+    <t>28.0,5.0,0.67,0.47,1.41,0.5,11.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.25,0.07,0.07,0.11,0.04,0.13,0.14,0.14,20.9,20.25,5.15,0.97,0.94,1.02,1.25,12.44,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.11,0.16,0.07,0.07,0.2,0.01,0.0,0.0,0.0,13.0</t>
+  </si>
+  <si>
+    <t>14.29,4.87,1.19,1.65,0.72,0.71,9.53,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.05,0.23,0.06,0.06,0.13,0.02,0.13,0.0,0.0,15.87,17.33,4.96,1.24,1.42,0.88,0.17,10.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,14.29</t>
   </si>
   <si>
     <t>that</t>
@@ -885,58 +885,58 @@
     <t>even trust my life with.</t>
   </si>
   <si>
-    <t>435,0.5,11.7,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,518,1.2,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>399,0.33,10.42,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.05,0.0,430,1.0,10.65,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>435,0.5,11.7,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14</t>
-  </si>
-  <si>
-    <t>358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.16,0.29,280,0.5,11.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.11,0.14</t>
-  </si>
-  <si>
-    <t>380,0.75,11.19,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,536,0.0,12.09,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.11,0.14</t>
-  </si>
-  <si>
-    <t>417,1.25,12.44,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,459,0.0,10.14,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>459,0.0,10.14,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.25,0.3,0.0,0.0,472,0.5,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14,430,1.0,10.65,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>536,0.0,12.09,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.11,0.14,280,0.5,11.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.11,0.14</t>
-  </si>
-  <si>
-    <t>468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14,369,0.75,10.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.05,0.0</t>
-  </si>
-  <si>
-    <t>396,0.0,11.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,322,0.33,12.1,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>367,0.5,12.31,0.0,0.07,2.0,0.0,0.0,0.0,0.2,0.35,0.3,0.05,0.0,150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>417,1.25,12.44,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,516,0.17,10.87,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>325,0.5,12.26,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29</t>
-  </si>
-  <si>
-    <t>150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,398,1.0,11.14,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>403,3.0,12.38,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,430,1.0,10.65,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14,558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29</t>
+    <t>21.75,5.0,1.04,0.94,1.1,0.5,11.7,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.28,0.1,0.1,0.15,0.01,0.0,0.0,0.0,22.0,21.4,4.84,1.28,1.18,1.08,1.2,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.21,0.07,0.07,0.09,0.03,0.13,0.0,0.0,11.39</t>
+  </si>
+  <si>
+    <t>13.17,5.05,0.94,1.42,0.66,0.33,10.42,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.06,0.08,0.27,0.11,0.11,0.18,0.03,0.0,0.0,0.0,17.91,17.0,5.06,1.01,1.18,0.86,1.0,10.65,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.25,0.08,0.08,0.16,0.01,0.0,0.0,0.0,15.15</t>
+  </si>
+  <si>
+    <t>21.75,5.0,1.04,0.94,1.1,0.5,11.7,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.28,0.1,0.1,0.15,0.01,0.0,0.0,0.0,22.0,18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92</t>
+  </si>
+  <si>
+    <t>16.75,5.34,0.8,0.94,0.85,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.16,0.04,0.04,0.09,0.01,0.0,0.29,0.29,12.06,28.0,5.0,0.67,0.47,1.41,0.5,11.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.25,0.07,0.07,0.11,0.04,0.13,0.14,0.14,20.9</t>
+  </si>
+  <si>
+    <t>19.0,5.0,0.91,0.94,0.96,0.75,11.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.17,0.11,0.11,0.05,0.01,0.0,0.0,0.0,12.21,17.0,5.25,1.22,1.42,0.86,0.0,12.09,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.15,0.25,0.01,0.01,0.09,0.01,0.0,0.14,0.14,12.05</t>
+  </si>
+  <si>
+    <t>20.25,5.15,0.97,0.94,1.02,1.25,12.44,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.11,0.16,0.07,0.07,0.2,0.01,0.0,0.0,0.0,13.0,10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14</t>
+  </si>
+  <si>
+    <t>10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14,24.25,4.73,1.16,0.94,1.22,0.0,10.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.08,0.23,0.08,0.08,0.14,0.01,0.0,0.0,0.0,21.0</t>
+  </si>
+  <si>
+    <t>24.25,4.73,1.16,0.94,1.22,0.0,10.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.08,0.23,0.08,0.08,0.14,0.01,0.0,0.0,0.0,21.0,22.5,5.24,1.07,0.94,1.14,0.5,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.19,0.07,0.07,0.08,0.01,0.0,0.0,0.0,12.0</t>
+  </si>
+  <si>
+    <t>18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92,17.0,5.06,1.01,1.18,0.86,1.0,10.65,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.25,0.08,0.08,0.16,0.01,0.0,0.0,0.0,15.15</t>
+  </si>
+  <si>
+    <t>17.0,5.25,1.22,1.42,0.86,0.0,12.09,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.15,0.25,0.01,0.01,0.09,0.01,0.0,0.14,0.14,12.05,28.0,5.0,0.67,0.47,1.41,0.5,11.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.25,0.07,0.07,0.11,0.04,0.13,0.14,0.14,20.9</t>
+  </si>
+  <si>
+    <t>18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92,19.25,4.79,0.92,0.94,0.97,0.75,10.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.08,0.08,0.13,0.01,0.0,0.0,0.0,21.44</t>
+  </si>
+  <si>
+    <t>27.33,4.83,0.98,0.71,1.38,0.0,11.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.24,0.04,0.04,0.15,0.01,0.13,0.0,0.0,9.16,21.0,5.11,0.75,0.71,1.06,0.33,12.1,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.25,0.06,0.06,0.08,0.02,0.0,0.0,0.0,13.88</t>
+  </si>
+  <si>
+    <t>35.0,5.24,0.83,0.47,1.77,0.5,12.31,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.16,0.04,0.23,0.07,0.07,0.11,0.01,0.0,0.0,0.0,11.11,10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14</t>
+  </si>
+  <si>
+    <t>20.25,5.15,0.97,0.94,1.02,1.25,12.44,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.11,0.16,0.07,0.07,0.2,0.01,0.0,0.0,0.0,13.0,17.33,4.96,1.24,1.42,0.88,0.17,10.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,14.29</t>
+  </si>
+  <si>
+    <t>15.5,5.24,0.74,0.94,0.78,0.5,12.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.26,0.05,0.05,0.15,0.02,0.0,0.0,0.0,15.08,14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68</t>
+  </si>
+  <si>
+    <t>10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14,26.33,5.04,0.94,0.71,1.33,1.0,11.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.06,0.27,0.11,0.11,0.1,0.03,0.0,0.0,0.0,13.35</t>
+  </si>
+  <si>
+    <t>82.0,4.91,0.98,0.24,4.14,3.0,12.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.06,0.06,0.16,0.01,0.0,0.0,0.0,17.0,17.0,5.06,1.01,1.18,0.86,1.0,10.65,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.25,0.08,0.08,0.16,0.01,0.0,0.0,0.0,15.15</t>
+  </si>
+  <si>
+    <t>18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92,14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68</t>
   </si>
   <si>
     <t>fi</t>
@@ -954,55 +954,55 @@
     <t>f the missing party, but it can and should be done.</t>
   </si>
   <si>
-    <t>359,0.75,9.22,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,398,1.0,11.14,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>459,0.0,10.14,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.25,0.3,0.0,0.0,359,0.75,9.22,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>398,1.0,11.14,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,504,0.17,10.04,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.45,0.45,0.05,0.14</t>
-  </si>
-  <si>
-    <t>403,3.0,12.38,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,504,0.17,10.04,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.45,0.45,0.05,0.14</t>
-  </si>
-  <si>
-    <t>403,3.0,12.38,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.16,0.29</t>
-  </si>
-  <si>
-    <t>230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,487,0.71,9.53,0.0,0.0,1.0,0.0,0.01,0.0,0.4,0.4,0.4,0.05,0.0</t>
-  </si>
-  <si>
-    <t>150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,403,3.0,12.38,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>359,0.75,9.22,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,472,0.5,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>435,0.5,11.7,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,536,0.0,12.09,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.11,0.14</t>
-  </si>
-  <si>
-    <t>470,0.4,9.25,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.11,0.0,359,0.75,9.22,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>289,0.5,11.07,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,545,0.33,12.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>459,0.0,10.14,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.25,0.3,0.0,0.0,380,0.75,11.19,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>545,0.33,12.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,367,0.5,12.31,0.0,0.07,2.0,0.0,0.0,0.0,0.2,0.35,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>380,0.75,11.19,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>398,1.0,11.14,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,435,0.5,11.7,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.16,0.29,459,0.0,10.14,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>470,0.4,9.25,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.11,0.0,536,0.0,12.09,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.11,0.14</t>
+    <t>19.5,4.6,0.93,0.94,0.98,0.75,9.22,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.23,0.09,0.09,0.21,0.0,0.0,0.0,0.0,18.0,26.33,5.04,0.94,0.71,1.33,1.0,11.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.06,0.27,0.11,0.11,0.1,0.03,0.0,0.0,0.0,13.35</t>
+  </si>
+  <si>
+    <t>24.25,4.73,1.16,0.94,1.22,0.0,10.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.08,0.23,0.08,0.08,0.14,0.01,0.0,0.0,0.0,21.0,19.5,4.6,0.93,0.94,0.98,0.75,9.22,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.23,0.09,0.09,0.21,0.0,0.0,0.0,0.0,18.0</t>
+  </si>
+  <si>
+    <t>26.33,5.04,0.94,0.71,1.33,1.0,11.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.06,0.27,0.11,0.11,0.1,0.03,0.0,0.0,0.0,13.35,17.67,4.75,1.26,1.42,0.89,0.17,10.04,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.21,0.07,0.07,0.11,0.01,0.0,0.14,0.14,12.19</t>
+  </si>
+  <si>
+    <t>82.0,4.91,0.98,0.24,4.14,3.0,12.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.06,0.06,0.16,0.01,0.0,0.0,0.0,17.0,17.67,4.75,1.26,1.42,0.89,0.17,10.04,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.21,0.07,0.07,0.11,0.01,0.0,0.14,0.14,12.19</t>
+  </si>
+  <si>
+    <t>82.0,4.91,0.98,0.24,4.14,3.0,12.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.06,0.06,0.16,0.01,0.0,0.0,0.0,17.0,16.75,5.34,0.8,0.94,0.85,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.16,0.04,0.04,0.09,0.01,0.0,0.29,0.29,12.06</t>
+  </si>
+  <si>
+    <t>50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71,14.29,4.87,1.19,1.65,0.72,0.71,9.53,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.05,0.23,0.06,0.06,0.13,0.02,0.13,0.0,0.0,15.87</t>
+  </si>
+  <si>
+    <t>10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14,82.0,4.91,0.98,0.24,4.14,3.0,12.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.06,0.06,0.16,0.01,0.0,0.0,0.0,17.0</t>
+  </si>
+  <si>
+    <t>19.5,4.6,0.93,0.94,0.98,0.75,9.22,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.23,0.09,0.09,0.21,0.0,0.0,0.0,0.0,18.0,22.5,5.24,1.07,0.94,1.14,0.5,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.19,0.07,0.07,0.08,0.01,0.0,0.0,0.0,12.0</t>
+  </si>
+  <si>
+    <t>21.75,5.0,1.04,0.94,1.1,0.5,11.7,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.28,0.1,0.1,0.15,0.01,0.0,0.0,0.0,22.0,17.0,5.25,1.22,1.42,0.86,0.0,12.09,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.15,0.25,0.01,0.01,0.09,0.01,0.0,0.14,0.14,12.05</t>
+  </si>
+  <si>
+    <t>19.8,4.75,1.18,1.18,1.0,0.4,9.25,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.1,0.2,0.08,0.08,0.13,0.01,0.0,0.0,0.0,13.44,19.5,4.6,0.93,0.94,0.98,0.75,9.22,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.23,0.09,0.09,0.21,0.0,0.0,0.0,0.0,18.0</t>
+  </si>
+  <si>
+    <t>14.0,5.16,0.67,0.94,0.71,0.5,11.07,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.27,0.11,0.11,0.14,0.02,0.0,0.0,0.0,22.44,17.67,5.14,1.26,1.42,0.89,0.33,12.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.27,0.08,0.08,0.11,0.01,0.0,0.0,0.0,13.05</t>
+  </si>
+  <si>
+    <t>24.25,4.73,1.16,0.94,1.22,0.0,10.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.08,0.23,0.08,0.08,0.14,0.01,0.0,0.0,0.0,21.0,19.0,5.0,0.91,0.94,0.96,0.75,11.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.17,0.11,0.11,0.05,0.01,0.0,0.0,0.0,12.21</t>
+  </si>
+  <si>
+    <t>17.67,5.14,1.26,1.42,0.89,0.33,12.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.27,0.08,0.08,0.11,0.01,0.0,0.0,0.0,13.05,35.0,5.24,0.83,0.47,1.77,0.5,12.31,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.16,0.04,0.23,0.07,0.07,0.11,0.01,0.0,0.0,0.0,11.11</t>
+  </si>
+  <si>
+    <t>19.0,5.0,0.91,0.94,0.96,0.75,11.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.17,0.11,0.11,0.05,0.01,0.0,0.0,0.0,12.21,50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>26.33,5.04,0.94,0.71,1.33,1.0,11.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.06,0.27,0.11,0.11,0.1,0.03,0.0,0.0,0.0,13.35,21.75,5.0,1.04,0.94,1.1,0.5,11.7,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.28,0.1,0.1,0.15,0.01,0.0,0.0,0.0,22.0</t>
+  </si>
+  <si>
+    <t>16.75,5.34,0.8,0.94,0.85,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.16,0.04,0.04,0.09,0.01,0.0,0.29,0.29,12.06,24.25,4.73,1.16,0.94,1.22,0.0,10.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.08,0.23,0.08,0.08,0.14,0.01,0.0,0.0,0.0,21.0</t>
+  </si>
+  <si>
+    <t>19.8,4.75,1.18,1.18,1.0,0.4,9.25,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.1,0.2,0.08,0.08,0.13,0.01,0.0,0.0,0.0,13.44,17.0,5.25,1.22,1.42,0.86,0.0,12.09,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.15,0.25,0.01,0.01,0.09,0.01,0.0,0.14,0.14,12.05</t>
   </si>
   <si>
     <t>an wo</t>
@@ -1014,7 +1014,7 @@
     <t>how much better it could be.</t>
   </si>
   <si>
-    <t>610,0.25,14.58,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.16,0.0,409,1.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.0,0.0</t>
+    <t>27.0,5.65,1.29,0.94,1.36,0.25,14.58,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.12,0.19,0.09,0.09,0.08,0.04,0.25,0.0,0.0,8.5,43.5,4.7,1.04,0.47,2.2,1.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.18,0.08,0.08,0.07,0.01,0.0,0.0,0.0,13.38</t>
   </si>
   <si>
     <t>the h</t>
@@ -1026,7 +1026,7 @@
     <t>pecially if I had younger brothers or sisters.</t>
   </si>
   <si>
-    <t>417,1.25,12.44,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,610,0.25,14.58,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.16,0.0</t>
+    <t>20.25,5.15,0.97,0.94,1.02,1.25,12.44,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.11,0.16,0.07,0.07,0.2,0.01,0.0,0.0,0.0,13.0,27.0,5.65,1.29,0.94,1.36,0.25,14.58,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.12,0.19,0.09,0.09,0.08,0.04,0.25,0.0,0.0,8.5</t>
   </si>
   <si>
     <t>n</t>
@@ -1041,13 +1041,13 @@
     <t>into half a man, I would much rather being fatherless.</t>
   </si>
   <si>
-    <t>369,0.75,10.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.05,0.0,468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14</t>
-  </si>
-  <si>
-    <t>430,1.0,10.65,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>518,1.2,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,536,0.0,12.09,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.11,0.14</t>
+    <t>19.25,4.79,0.92,0.94,0.97,0.75,10.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.08,0.08,0.13,0.01,0.0,0.0,0.0,21.44,18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92</t>
+  </si>
+  <si>
+    <t>17.0,5.06,1.01,1.18,0.86,1.0,10.65,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.25,0.08,0.08,0.16,0.01,0.0,0.0,0.0,15.15,10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14</t>
+  </si>
+  <si>
+    <t>21.4,4.84,1.28,1.18,1.08,1.2,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.21,0.07,0.07,0.09,0.03,0.13,0.0,0.0,11.39,17.0,5.25,1.22,1.42,0.86,0.0,12.09,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.15,0.25,0.01,0.01,0.09,0.01,0.0,0.14,0.14,12.05</t>
   </si>
   <si>
     <t>ve</t>
@@ -1062,64 +1062,64 @@
     <t>ng what could have been is better than wondering how much better it could be.</t>
   </si>
   <si>
-    <t>280,0.5,11.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.11,0.14,610,0.25,14.58,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.16,0.0</t>
-  </si>
-  <si>
-    <t>369,0.75,10.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.05,0.0,558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29</t>
-  </si>
-  <si>
-    <t>150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,380,0.75,11.19,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>417,1.25,12.44,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,403,3.0,12.38,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>430,1.0,10.65,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,359,0.75,9.22,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>325,0.5,12.26,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>403,3.0,12.38,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,398,1.0,11.14,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>430,1.0,10.65,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,409,1.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>325,0.5,12.26,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.16,0.29</t>
-  </si>
-  <si>
-    <t>516,0.17,10.87,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,435,0.5,11.7,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,472,0.5,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>369,0.75,10.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.05,0.0,472,0.5,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>403,3.0,12.38,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,322,0.33,12.1,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>435,0.5,11.7,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,399,0.33,10.42,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>487,0.71,9.53,0.0,0.0,1.0,0.0,0.01,0.0,0.4,0.4,0.4,0.05,0.0,459,0.0,10.14,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>325,0.5,12.26,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,367,0.5,12.31,0.0,0.07,2.0,0.0,0.0,0.0,0.2,0.35,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>322,0.33,12.1,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,470,0.4,9.25,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.11,0.0</t>
-  </si>
-  <si>
-    <t>322,0.33,12.1,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,536,0.0,12.09,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.11,0.14</t>
-  </si>
-  <si>
-    <t>399,0.33,10.42,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.05,0.0,459,0.0,10.14,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>472,0.5,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0,516,0.17,10.87,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>28.0,5.0,0.67,0.47,1.41,0.5,11.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.25,0.07,0.07,0.11,0.04,0.13,0.14,0.14,20.9,27.0,5.65,1.29,0.94,1.36,0.25,14.58,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.12,0.19,0.09,0.09,0.08,0.04,0.25,0.0,0.0,8.5</t>
+  </si>
+  <si>
+    <t>19.25,4.79,0.92,0.94,0.97,0.75,10.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.08,0.08,0.13,0.01,0.0,0.0,0.0,21.44,14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68</t>
+  </si>
+  <si>
+    <t>10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14,19.0,5.0,0.91,0.94,0.96,0.75,11.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.17,0.11,0.11,0.05,0.01,0.0,0.0,0.0,12.21</t>
+  </si>
+  <si>
+    <t>20.25,5.15,0.97,0.94,1.02,1.25,12.44,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.11,0.16,0.07,0.07,0.2,0.01,0.0,0.0,0.0,13.0,82.0,4.91,0.98,0.24,4.14,3.0,12.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.06,0.06,0.16,0.01,0.0,0.0,0.0,17.0</t>
+  </si>
+  <si>
+    <t>17.0,5.06,1.01,1.18,0.86,1.0,10.65,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.25,0.08,0.08,0.16,0.01,0.0,0.0,0.0,15.15,19.5,4.6,0.93,0.94,0.98,0.75,9.22,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.23,0.09,0.09,0.21,0.0,0.0,0.0,0.0,18.0</t>
+  </si>
+  <si>
+    <t>15.5,5.24,0.74,0.94,0.78,0.5,12.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.26,0.05,0.05,0.15,0.02,0.0,0.0,0.0,15.08,50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>82.0,4.91,0.98,0.24,4.14,3.0,12.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.06,0.06,0.16,0.01,0.0,0.0,0.0,17.0,26.33,5.04,0.94,0.71,1.33,1.0,11.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.06,0.27,0.11,0.11,0.1,0.03,0.0,0.0,0.0,13.35</t>
+  </si>
+  <si>
+    <t>17.0,5.06,1.01,1.18,0.86,1.0,10.65,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.25,0.08,0.08,0.16,0.01,0.0,0.0,0.0,15.15,43.5,4.7,1.04,0.47,2.2,1.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.18,0.08,0.08,0.07,0.01,0.0,0.0,0.0,13.38</t>
+  </si>
+  <si>
+    <t>15.5,5.24,0.74,0.94,0.78,0.5,12.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.26,0.05,0.05,0.15,0.02,0.0,0.0,0.0,15.08,16.75,5.34,0.8,0.94,0.85,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.16,0.04,0.04,0.09,0.01,0.0,0.29,0.29,12.06</t>
+  </si>
+  <si>
+    <t>17.33,4.96,1.24,1.42,0.88,0.17,10.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,14.29,21.75,5.0,1.04,0.94,1.1,0.5,11.7,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.28,0.1,0.1,0.15,0.01,0.0,0.0,0.0,22.0</t>
+  </si>
+  <si>
+    <t>50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71,22.5,5.24,1.07,0.94,1.14,0.5,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.19,0.07,0.07,0.08,0.01,0.0,0.0,0.0,12.0</t>
+  </si>
+  <si>
+    <t>19.25,4.79,0.92,0.94,0.97,0.75,10.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.08,0.08,0.13,0.01,0.0,0.0,0.0,21.44,22.5,5.24,1.07,0.94,1.14,0.5,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.19,0.07,0.07,0.08,0.01,0.0,0.0,0.0,12.0</t>
+  </si>
+  <si>
+    <t>82.0,4.91,0.98,0.24,4.14,3.0,12.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.06,0.06,0.16,0.01,0.0,0.0,0.0,17.0,21.0,5.11,0.75,0.71,1.06,0.33,12.1,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.25,0.06,0.06,0.08,0.02,0.0,0.0,0.0,13.88</t>
+  </si>
+  <si>
+    <t>21.75,5.0,1.04,0.94,1.1,0.5,11.7,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.28,0.1,0.1,0.15,0.01,0.0,0.0,0.0,22.0,13.17,5.05,0.94,1.42,0.66,0.33,10.42,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.06,0.08,0.27,0.11,0.11,0.18,0.03,0.0,0.0,0.0,17.91</t>
+  </si>
+  <si>
+    <t>14.29,4.87,1.19,1.65,0.72,0.71,9.53,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.05,0.23,0.06,0.06,0.13,0.02,0.13,0.0,0.0,15.87,24.25,4.73,1.16,0.94,1.22,0.0,10.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.08,0.23,0.08,0.08,0.14,0.01,0.0,0.0,0.0,21.0</t>
+  </si>
+  <si>
+    <t>15.5,5.24,0.74,0.94,0.78,0.5,12.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.26,0.05,0.05,0.15,0.02,0.0,0.0,0.0,15.08,35.0,5.24,0.83,0.47,1.77,0.5,12.31,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.16,0.04,0.23,0.07,0.07,0.11,0.01,0.0,0.0,0.0,11.11</t>
+  </si>
+  <si>
+    <t>21.0,5.11,0.75,0.71,1.06,0.33,12.1,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.25,0.06,0.06,0.08,0.02,0.0,0.0,0.0,13.88,19.8,4.75,1.18,1.18,1.0,0.4,9.25,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.1,0.2,0.08,0.08,0.13,0.01,0.0,0.0,0.0,13.44</t>
+  </si>
+  <si>
+    <t>21.0,5.11,0.75,0.71,1.06,0.33,12.1,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.25,0.06,0.06,0.08,0.02,0.0,0.0,0.0,13.88,17.0,5.25,1.22,1.42,0.86,0.0,12.09,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.15,0.25,0.01,0.01,0.09,0.01,0.0,0.14,0.14,12.05</t>
+  </si>
+  <si>
+    <t>13.17,5.05,0.94,1.42,0.66,0.33,10.42,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.06,0.08,0.27,0.11,0.11,0.18,0.03,0.0,0.0,0.0,17.91,24.25,4.73,1.16,0.94,1.22,0.0,10.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.08,0.23,0.08,0.08,0.14,0.01,0.0,0.0,0.0,21.0</t>
+  </si>
+  <si>
+    <t>22.5,5.24,1.07,0.94,1.14,0.5,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.19,0.07,0.07,0.08,0.01,0.0,0.0,0.0,12.0,17.33,4.96,1.24,1.42,0.88,0.17,10.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,14.29</t>
   </si>
   <si>
     <t>cant</t>
@@ -1131,7 +1131,7 @@
     <t>ust my life with.</t>
   </si>
   <si>
-    <t>430,1.0,10.65,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,545,0.33,12.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>17.0,5.06,1.01,1.18,0.86,1.0,10.65,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.25,0.08,0.08,0.16,0.01,0.0,0.0,0.0,15.15,17.67,5.14,1.26,1.42,0.89,0.33,12.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.27,0.08,0.08,0.11,0.01,0.0,0.0,0.0,13.05</t>
   </si>
   <si>
     <t>y</t>
@@ -1146,13 +1146,13 @@
     <t>life.</t>
   </si>
   <si>
-    <t>472,0.5,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0,417,1.25,12.44,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>280,0.5,11.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.11,0.14,230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>435,0.5,11.7,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29</t>
+    <t>22.5,5.24,1.07,0.94,1.14,0.5,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.19,0.07,0.07,0.08,0.01,0.0,0.0,0.0,12.0,20.25,5.15,0.97,0.94,1.02,1.25,12.44,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.11,0.16,0.07,0.07,0.2,0.01,0.0,0.0,0.0,13.0</t>
+  </si>
+  <si>
+    <t>28.0,5.0,0.67,0.47,1.41,0.5,11.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.25,0.07,0.07,0.11,0.04,0.13,0.14,0.14,20.9,50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>21.75,5.0,1.04,0.94,1.1,0.5,11.7,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.28,0.1,0.1,0.15,0.01,0.0,0.0,0.0,22.0,14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68</t>
   </si>
   <si>
     <t>y,</t>
@@ -1167,13 +1167,13 @@
     <t>and should be done.</t>
   </si>
   <si>
-    <t>516,0.17,10.87,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,359,0.75,9.22,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>289,0.5,11.07,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,367,0.5,12.31,0.0,0.07,2.0,0.0,0.0,0.0,0.2,0.35,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>610,0.25,14.58,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.16,0.0,399,0.33,10.42,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.05,0.0</t>
+    <t>17.33,4.96,1.24,1.42,0.88,0.17,10.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,14.29,19.5,4.6,0.93,0.94,0.98,0.75,9.22,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.23,0.09,0.09,0.21,0.0,0.0,0.0,0.0,18.0</t>
+  </si>
+  <si>
+    <t>14.0,5.16,0.67,0.94,0.71,0.5,11.07,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.27,0.11,0.11,0.14,0.02,0.0,0.0,0.0,22.44,35.0,5.24,0.83,0.47,1.77,0.5,12.31,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.16,0.04,0.23,0.07,0.07,0.11,0.01,0.0,0.0,0.0,11.11</t>
+  </si>
+  <si>
+    <t>27.0,5.65,1.29,0.94,1.36,0.25,14.58,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.12,0.19,0.09,0.09,0.08,0.04,0.25,0.0,0.0,8.5,13.17,5.05,0.94,1.42,0.66,0.33,10.42,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.06,0.08,0.27,0.11,0.11,0.18,0.03,0.0,0.0,0.0,17.91</t>
   </si>
   <si>
     <t>nt</t>
@@ -1188,52 +1188,52 @@
     <t>hat to be fatherless is much better.</t>
   </si>
   <si>
-    <t>487,0.71,9.53,0.0,0.0,1.0,0.0,0.01,0.0,0.4,0.4,0.4,0.05,0.0,472,0.5,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>518,1.2,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,380,0.75,11.19,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14,470,0.4,9.25,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.11,0.0</t>
-  </si>
-  <si>
-    <t>545,0.33,12.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.16,0.29</t>
-  </si>
-  <si>
-    <t>358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.16,0.29,367,0.5,12.31,0.0,0.07,2.0,0.0,0.0,0.0,0.2,0.35,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14,399,0.33,10.42,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14,325,0.5,12.26,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>487,0.71,9.53,0.0,0.0,1.0,0.0,0.01,0.0,0.4,0.4,0.4,0.05,0.0,369,0.75,10.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.05,0.0</t>
-  </si>
-  <si>
-    <t>403,3.0,12.38,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,396,0.0,11.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>472,0.5,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0,456,0.2,9.69,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.55,0.55,0.0,0.0</t>
-  </si>
-  <si>
-    <t>325,0.5,12.26,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,518,1.2,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>504,0.17,10.04,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.45,0.45,0.05,0.14,435,0.5,11.7,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>470,0.4,9.25,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.11,0.0,396,0.0,11.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>417,1.25,12.44,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,430,1.0,10.65,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>359,0.75,9.22,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.16,0.29</t>
-  </si>
-  <si>
-    <t>536,0.0,12.09,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.11,0.14,468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14</t>
+    <t>14.29,4.87,1.19,1.65,0.72,0.71,9.53,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.05,0.23,0.06,0.06,0.13,0.02,0.13,0.0,0.0,15.87,22.5,5.24,1.07,0.94,1.14,0.5,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.19,0.07,0.07,0.08,0.01,0.0,0.0,0.0,12.0</t>
+  </si>
+  <si>
+    <t>21.4,4.84,1.28,1.18,1.08,1.2,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.21,0.07,0.07,0.09,0.03,0.13,0.0,0.0,11.39,19.0,5.0,0.91,0.94,0.96,0.75,11.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.17,0.11,0.11,0.05,0.01,0.0,0.0,0.0,12.21</t>
+  </si>
+  <si>
+    <t>18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92,19.8,4.75,1.18,1.18,1.0,0.4,9.25,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.1,0.2,0.08,0.08,0.13,0.01,0.0,0.0,0.0,13.44</t>
+  </si>
+  <si>
+    <t>17.67,5.14,1.26,1.42,0.89,0.33,12.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.27,0.08,0.08,0.11,0.01,0.0,0.0,0.0,13.05,16.75,5.34,0.8,0.94,0.85,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.16,0.04,0.04,0.09,0.01,0.0,0.29,0.29,12.06</t>
+  </si>
+  <si>
+    <t>16.75,5.34,0.8,0.94,0.85,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.16,0.04,0.04,0.09,0.01,0.0,0.29,0.29,12.06,35.0,5.24,0.83,0.47,1.77,0.5,12.31,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.16,0.04,0.23,0.07,0.07,0.11,0.01,0.0,0.0,0.0,11.11</t>
+  </si>
+  <si>
+    <t>18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92,13.17,5.05,0.94,1.42,0.66,0.33,10.42,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.06,0.08,0.27,0.11,0.11,0.18,0.03,0.0,0.0,0.0,17.91</t>
+  </si>
+  <si>
+    <t>18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92,15.5,5.24,0.74,0.94,0.78,0.5,12.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.26,0.05,0.05,0.15,0.02,0.0,0.0,0.0,15.08</t>
+  </si>
+  <si>
+    <t>14.29,4.87,1.19,1.65,0.72,0.71,9.53,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.05,0.23,0.06,0.06,0.13,0.02,0.13,0.0,0.0,15.87,19.25,4.79,0.92,0.94,0.97,0.75,10.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.08,0.08,0.13,0.01,0.0,0.0,0.0,21.44</t>
+  </si>
+  <si>
+    <t>82.0,4.91,0.98,0.24,4.14,3.0,12.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.06,0.06,0.16,0.01,0.0,0.0,0.0,17.0,27.33,4.83,0.98,0.71,1.38,0.0,11.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.24,0.04,0.04,0.15,0.01,0.13,0.0,0.0,9.16</t>
+  </si>
+  <si>
+    <t>22.5,5.24,1.07,0.94,1.14,0.5,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.19,0.07,0.07,0.08,0.01,0.0,0.0,0.0,12.0,19.6,4.65,1.17,1.18,0.99,0.2,9.69,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.23,0.04,0.04,0.15,0.01,0.0,0.0,0.0,15.29</t>
+  </si>
+  <si>
+    <t>15.5,5.24,0.74,0.94,0.78,0.5,12.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.26,0.05,0.05,0.15,0.02,0.0,0.0,0.0,15.08,21.4,4.84,1.28,1.18,1.08,1.2,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.21,0.07,0.07,0.09,0.03,0.13,0.0,0.0,11.39</t>
+  </si>
+  <si>
+    <t>17.67,4.75,1.26,1.42,0.89,0.17,10.04,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.21,0.07,0.07,0.11,0.01,0.0,0.14,0.14,12.19,21.75,5.0,1.04,0.94,1.1,0.5,11.7,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.28,0.1,0.1,0.15,0.01,0.0,0.0,0.0,22.0</t>
+  </si>
+  <si>
+    <t>19.8,4.75,1.18,1.18,1.0,0.4,9.25,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.1,0.2,0.08,0.08,0.13,0.01,0.0,0.0,0.0,13.44,27.33,4.83,0.98,0.71,1.38,0.0,11.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.24,0.04,0.04,0.15,0.01,0.13,0.0,0.0,9.16</t>
+  </si>
+  <si>
+    <t>20.25,5.15,0.97,0.94,1.02,1.25,12.44,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.11,0.16,0.07,0.07,0.2,0.01,0.0,0.0,0.0,13.0,17.0,5.06,1.01,1.18,0.86,1.0,10.65,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.25,0.08,0.08,0.16,0.01,0.0,0.0,0.0,15.15</t>
+  </si>
+  <si>
+    <t>19.5,4.6,0.93,0.94,0.98,0.75,9.22,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.23,0.09,0.09,0.21,0.0,0.0,0.0,0.0,18.0,16.75,5.34,0.8,0.94,0.85,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.16,0.04,0.04,0.09,0.01,0.0,0.29,0.29,12.06</t>
+  </si>
+  <si>
+    <t>17.0,5.25,1.22,1.42,0.86,0.0,12.09,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.15,0.25,0.01,0.01,0.09,0.01,0.0,0.14,0.14,12.05,18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92</t>
   </si>
   <si>
     <t>h</t>
@@ -1251,10 +1251,10 @@
     <t>than come in and out of my life.</t>
   </si>
   <si>
-    <t>468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14,610,0.25,14.58,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.16,0.0</t>
-  </si>
-  <si>
-    <t>545,0.33,12.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,470,0.4,9.25,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.11,0.0</t>
+    <t>18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92,27.0,5.65,1.29,0.94,1.36,0.25,14.58,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.12,0.19,0.09,0.09,0.08,0.04,0.25,0.0,0.0,8.5</t>
+  </si>
+  <si>
+    <t>17.67,5.14,1.26,1.42,0.89,0.33,12.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.27,0.08,0.08,0.11,0.01,0.0,0.0,0.0,13.05,19.8,4.75,1.18,1.18,1.0,0.4,9.25,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.1,0.2,0.08,0.08,0.13,0.01,0.0,0.0,0.0,13.44</t>
   </si>
   <si>
     <t>st</t>
@@ -1269,37 +1269,37 @@
     <t>ouse, I wouldn't call him my father at all.</t>
   </si>
   <si>
-    <t>472,0.5,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0,322,0.33,12.1,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>359,0.75,9.22,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,545,0.33,12.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>396,0.0,11.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,516,0.17,10.87,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>399,0.33,10.42,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.05,0.0,470,0.4,9.25,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.11,0.0</t>
-  </si>
-  <si>
-    <t>516,0.17,10.87,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,289,0.5,11.07,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>289,0.5,11.07,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,359,0.75,9.22,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>456,0.2,9.69,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.55,0.55,0.0,0.0,396,0.0,11.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>472,0.5,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0,399,0.33,10.42,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>396,0.0,11.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,367,0.5,12.31,0.0,0.07,2.0,0.0,0.0,0.0,0.2,0.35,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>487,0.71,9.53,0.0,0.0,1.0,0.0,0.01,0.0,0.4,0.4,0.4,0.05,0.0,325,0.5,12.26,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>536,0.0,12.09,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.11,0.14,610,0.25,14.58,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.16,0.0</t>
+    <t>22.5,5.24,1.07,0.94,1.14,0.5,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.19,0.07,0.07,0.08,0.01,0.0,0.0,0.0,12.0,21.0,5.11,0.75,0.71,1.06,0.33,12.1,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.25,0.06,0.06,0.08,0.02,0.0,0.0,0.0,13.88</t>
+  </si>
+  <si>
+    <t>19.5,4.6,0.93,0.94,0.98,0.75,9.22,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.23,0.09,0.09,0.21,0.0,0.0,0.0,0.0,18.0,17.67,5.14,1.26,1.42,0.89,0.33,12.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.27,0.08,0.08,0.11,0.01,0.0,0.0,0.0,13.05</t>
+  </si>
+  <si>
+    <t>27.33,4.83,0.98,0.71,1.38,0.0,11.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.24,0.04,0.04,0.15,0.01,0.13,0.0,0.0,9.16,17.33,4.96,1.24,1.42,0.88,0.17,10.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,14.29</t>
+  </si>
+  <si>
+    <t>13.17,5.05,0.94,1.42,0.66,0.33,10.42,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.06,0.08,0.27,0.11,0.11,0.18,0.03,0.0,0.0,0.0,17.91,19.8,4.75,1.18,1.18,1.0,0.4,9.25,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.1,0.2,0.08,0.08,0.13,0.01,0.0,0.0,0.0,13.44</t>
+  </si>
+  <si>
+    <t>17.33,4.96,1.24,1.42,0.88,0.17,10.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,14.29,14.0,5.16,0.67,0.94,0.71,0.5,11.07,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.27,0.11,0.11,0.14,0.02,0.0,0.0,0.0,22.44</t>
+  </si>
+  <si>
+    <t>14.0,5.16,0.67,0.94,0.71,0.5,11.07,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.27,0.11,0.11,0.14,0.02,0.0,0.0,0.0,22.44,19.5,4.6,0.93,0.94,0.98,0.75,9.22,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.23,0.09,0.09,0.21,0.0,0.0,0.0,0.0,18.0</t>
+  </si>
+  <si>
+    <t>19.6,4.65,1.17,1.18,0.99,0.2,9.69,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.23,0.04,0.04,0.15,0.01,0.0,0.0,0.0,15.29,27.33,4.83,0.98,0.71,1.38,0.0,11.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.24,0.04,0.04,0.15,0.01,0.13,0.0,0.0,9.16</t>
+  </si>
+  <si>
+    <t>22.5,5.24,1.07,0.94,1.14,0.5,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.19,0.07,0.07,0.08,0.01,0.0,0.0,0.0,12.0,13.17,5.05,0.94,1.42,0.66,0.33,10.42,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.06,0.08,0.27,0.11,0.11,0.18,0.03,0.0,0.0,0.0,17.91</t>
+  </si>
+  <si>
+    <t>27.33,4.83,0.98,0.71,1.38,0.0,11.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.24,0.04,0.04,0.15,0.01,0.13,0.0,0.0,9.16,35.0,5.24,0.83,0.47,1.77,0.5,12.31,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.16,0.04,0.23,0.07,0.07,0.11,0.01,0.0,0.0,0.0,11.11</t>
+  </si>
+  <si>
+    <t>14.29,4.87,1.19,1.65,0.72,0.71,9.53,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.05,0.23,0.06,0.06,0.13,0.02,0.13,0.0,0.0,15.87,15.5,5.24,0.74,0.94,0.78,0.5,12.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.26,0.05,0.05,0.15,0.02,0.0,0.0,0.0,15.08</t>
+  </si>
+  <si>
+    <t>17.0,5.25,1.22,1.42,0.86,0.0,12.09,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.15,0.25,0.01,0.01,0.09,0.01,0.0,0.14,0.14,12.05,27.0,5.65,1.29,0.94,1.36,0.25,14.58,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.12,0.19,0.09,0.09,0.08,0.04,0.25,0.0,0.0,8.5</t>
   </si>
   <si>
     <t>ro</t>
@@ -1317,7 +1317,7 @@
     <t>ther, I turned out great(Self-opinion). So yes, as opposed to having a lousy father that would rub off on me and mold me into half a man, I would much rather being fatherless.</t>
   </si>
   <si>
-    <t>468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14,504,0.17,10.04,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.45,0.45,0.05,0.14</t>
+    <t>18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92,17.67,4.75,1.26,1.42,0.89,0.17,10.04,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.21,0.07,0.07,0.11,0.01,0.0,0.14,0.14,12.19</t>
   </si>
   <si>
     <t>mo</t>
@@ -1329,40 +1329,40 @@
     <t>did.</t>
   </si>
   <si>
-    <t>289,0.5,11.07,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,435,0.5,11.7,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>459,0.0,10.14,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.25,0.3,0.0,0.0,399,0.33,10.42,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>430,1.0,10.65,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,459,0.0,10.14,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>409,1.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.0,0.0,516,0.17,10.87,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>289,0.5,11.07,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,470,0.4,9.25,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.11,0.0</t>
-  </si>
-  <si>
-    <t>322,0.33,12.1,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>280,0.5,11.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.11,0.14,369,0.75,10.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.05,0.0</t>
-  </si>
-  <si>
-    <t>396,0.0,11.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>417,1.25,12.44,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,325,0.5,12.26,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14,417,1.25,12.44,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>470,0.4,9.25,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.11,0.0,280,0.5,11.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.11,0.14</t>
-  </si>
-  <si>
-    <t>516,0.17,10.87,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,459,0.0,10.14,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.25,0.3,0.0,0.0</t>
+    <t>14.0,5.16,0.67,0.94,0.71,0.5,11.07,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.27,0.11,0.11,0.14,0.02,0.0,0.0,0.0,22.44,21.75,5.0,1.04,0.94,1.1,0.5,11.7,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.28,0.1,0.1,0.15,0.01,0.0,0.0,0.0,22.0</t>
+  </si>
+  <si>
+    <t>24.25,4.73,1.16,0.94,1.22,0.0,10.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.08,0.23,0.08,0.08,0.14,0.01,0.0,0.0,0.0,21.0,13.17,5.05,0.94,1.42,0.66,0.33,10.42,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.06,0.08,0.27,0.11,0.11,0.18,0.03,0.0,0.0,0.0,17.91</t>
+  </si>
+  <si>
+    <t>17.0,5.06,1.01,1.18,0.86,1.0,10.65,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.25,0.08,0.08,0.16,0.01,0.0,0.0,0.0,15.15,24.25,4.73,1.16,0.94,1.22,0.0,10.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.08,0.23,0.08,0.08,0.14,0.01,0.0,0.0,0.0,21.0</t>
+  </si>
+  <si>
+    <t>43.5,4.7,1.04,0.47,2.2,1.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.18,0.08,0.08,0.07,0.01,0.0,0.0,0.0,13.38,17.33,4.96,1.24,1.42,0.88,0.17,10.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,14.29</t>
+  </si>
+  <si>
+    <t>14.0,5.16,0.67,0.94,0.71,0.5,11.07,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.27,0.11,0.11,0.14,0.02,0.0,0.0,0.0,22.44,19.8,4.75,1.18,1.18,1.0,0.4,9.25,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.1,0.2,0.08,0.08,0.13,0.01,0.0,0.0,0.0,13.44</t>
+  </si>
+  <si>
+    <t>21.0,5.11,0.75,0.71,1.06,0.33,12.1,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.25,0.06,0.06,0.08,0.02,0.0,0.0,0.0,13.88,10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14</t>
+  </si>
+  <si>
+    <t>28.0,5.0,0.67,0.47,1.41,0.5,11.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.25,0.07,0.07,0.11,0.04,0.13,0.14,0.14,20.9,19.25,4.79,0.92,0.94,0.97,0.75,10.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.08,0.08,0.13,0.01,0.0,0.0,0.0,21.44</t>
+  </si>
+  <si>
+    <t>27.33,4.83,0.98,0.71,1.38,0.0,11.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.24,0.04,0.04,0.15,0.01,0.13,0.0,0.0,9.16,10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14</t>
+  </si>
+  <si>
+    <t>20.25,5.15,0.97,0.94,1.02,1.25,12.44,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.11,0.16,0.07,0.07,0.2,0.01,0.0,0.0,0.0,13.0,15.5,5.24,0.74,0.94,0.78,0.5,12.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.26,0.05,0.05,0.15,0.02,0.0,0.0,0.0,15.08</t>
+  </si>
+  <si>
+    <t>18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92,20.25,5.15,0.97,0.94,1.02,1.25,12.44,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.11,0.16,0.07,0.07,0.2,0.01,0.0,0.0,0.0,13.0</t>
+  </si>
+  <si>
+    <t>19.8,4.75,1.18,1.18,1.0,0.4,9.25,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.1,0.2,0.08,0.08,0.13,0.01,0.0,0.0,0.0,13.44,28.0,5.0,0.67,0.47,1.41,0.5,11.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.25,0.07,0.07,0.11,0.04,0.13,0.14,0.14,20.9</t>
+  </si>
+  <si>
+    <t>17.33,4.96,1.24,1.42,0.88,0.17,10.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,14.29,24.25,4.73,1.16,0.94,1.22,0.0,10.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.08,0.23,0.08,0.08,0.14,0.01,0.0,0.0,0.0,21.0</t>
   </si>
   <si>
     <t>fa</t>
@@ -1371,13 +1371,13 @@
     <t>figure.</t>
   </si>
   <si>
-    <t>398,1.0,11.14,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,322,0.33,12.1,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>380,0.75,11.19,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,456,0.2,9.69,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.55,0.55,0.0,0.0</t>
-  </si>
-  <si>
-    <t>558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29,417,1.25,12.44,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
+    <t>26.33,5.04,0.94,0.71,1.33,1.0,11.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.06,0.27,0.11,0.11,0.1,0.03,0.0,0.0,0.0,13.35,21.0,5.11,0.75,0.71,1.06,0.33,12.1,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.25,0.06,0.06,0.08,0.02,0.0,0.0,0.0,13.88</t>
+  </si>
+  <si>
+    <t>19.0,5.0,0.91,0.94,0.96,0.75,11.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.17,0.11,0.11,0.05,0.01,0.0,0.0,0.0,12.21,19.6,4.65,1.17,1.18,0.99,0.2,9.69,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.23,0.04,0.04,0.15,0.01,0.0,0.0,0.0,15.29</t>
+  </si>
+  <si>
+    <t>14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68,20.25,5.15,0.97,0.94,1.02,1.25,12.44,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.11,0.16,0.07,0.07,0.2,0.01,0.0,0.0,0.0,13.0</t>
   </si>
   <si>
     <t>had</t>
@@ -1386,34 +1386,34 @@
     <t>made.</t>
   </si>
   <si>
-    <t>430,1.0,10.65,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.16,0.29</t>
-  </si>
-  <si>
-    <t>230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,430,1.0,10.65,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>398,1.0,11.14,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,536,0.0,12.09,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.11,0.14</t>
-  </si>
-  <si>
-    <t>435,0.5,11.7,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,359,0.75,9.22,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>430,1.0,10.65,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,398,1.0,11.14,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>396,0.0,11.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,409,1.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14,367,0.5,12.31,0.0,0.07,2.0,0.0,0.0,0.0,0.2,0.35,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>289,0.5,11.07,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,456,0.2,9.69,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.55,0.55,0.0,0.0</t>
-  </si>
-  <si>
-    <t>435,0.5,11.7,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,325,0.5,12.26,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>536,0.0,12.09,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.11,0.14,516,0.17,10.87,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>17.0,5.06,1.01,1.18,0.86,1.0,10.65,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.25,0.08,0.08,0.16,0.01,0.0,0.0,0.0,15.15,16.75,5.34,0.8,0.94,0.85,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.16,0.04,0.04,0.09,0.01,0.0,0.29,0.29,12.06</t>
+  </si>
+  <si>
+    <t>50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71,17.0,5.06,1.01,1.18,0.86,1.0,10.65,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.25,0.08,0.08,0.16,0.01,0.0,0.0,0.0,15.15</t>
+  </si>
+  <si>
+    <t>26.33,5.04,0.94,0.71,1.33,1.0,11.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.06,0.27,0.11,0.11,0.1,0.03,0.0,0.0,0.0,13.35,17.0,5.25,1.22,1.42,0.86,0.0,12.09,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.15,0.25,0.01,0.01,0.09,0.01,0.0,0.14,0.14,12.05</t>
+  </si>
+  <si>
+    <t>21.75,5.0,1.04,0.94,1.1,0.5,11.7,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.28,0.1,0.1,0.15,0.01,0.0,0.0,0.0,22.0,19.5,4.6,0.93,0.94,0.98,0.75,9.22,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.23,0.09,0.09,0.21,0.0,0.0,0.0,0.0,18.0</t>
+  </si>
+  <si>
+    <t>17.0,5.06,1.01,1.18,0.86,1.0,10.65,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.25,0.08,0.08,0.16,0.01,0.0,0.0,0.0,15.15,26.33,5.04,0.94,0.71,1.33,1.0,11.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.06,0.27,0.11,0.11,0.1,0.03,0.0,0.0,0.0,13.35</t>
+  </si>
+  <si>
+    <t>27.33,4.83,0.98,0.71,1.38,0.0,11.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.24,0.04,0.04,0.15,0.01,0.13,0.0,0.0,9.16,43.5,4.7,1.04,0.47,2.2,1.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.18,0.08,0.08,0.07,0.01,0.0,0.0,0.0,13.38</t>
+  </si>
+  <si>
+    <t>18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92,35.0,5.24,0.83,0.47,1.77,0.5,12.31,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.16,0.04,0.23,0.07,0.07,0.11,0.01,0.0,0.0,0.0,11.11</t>
+  </si>
+  <si>
+    <t>14.0,5.16,0.67,0.94,0.71,0.5,11.07,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.27,0.11,0.11,0.14,0.02,0.0,0.0,0.0,22.44,19.6,4.65,1.17,1.18,0.99,0.2,9.69,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.23,0.04,0.04,0.15,0.01,0.0,0.0,0.0,15.29</t>
+  </si>
+  <si>
+    <t>21.75,5.0,1.04,0.94,1.1,0.5,11.7,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.28,0.1,0.1,0.15,0.01,0.0,0.0,0.0,22.0,15.5,5.24,0.74,0.94,0.78,0.5,12.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.26,0.05,0.05,0.15,0.02,0.0,0.0,0.0,15.08</t>
+  </si>
+  <si>
+    <t>17.0,5.25,1.22,1.42,0.86,0.0,12.09,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.15,0.25,0.01,0.01,0.09,0.01,0.0,0.14,0.14,12.05,17.33,4.96,1.24,1.42,0.88,0.17,10.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,14.29</t>
   </si>
   <si>
     <t>e tru</t>
@@ -1425,7 +1425,7 @@
     <t>I would rather have no father, then a father that I cant even trust my life with.</t>
   </si>
   <si>
-    <t>459,0.0,10.14,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.25,0.3,0.0,0.0,610,0.25,14.58,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.16,0.0</t>
+    <t>24.25,4.73,1.16,0.94,1.22,0.0,10.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.08,0.23,0.08,0.08,0.14,0.01,0.0,0.0,0.0,21.0,27.0,5.65,1.29,0.94,1.36,0.25,14.58,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.12,0.19,0.09,0.09,0.08,0.04,0.25,0.0,0.0,8.5</t>
   </si>
   <si>
     <t>vi</t>
@@ -1443,22 +1443,22 @@
     <t>her that would rub off on me and mold me into half a man, I would much rather being fatherless.</t>
   </si>
   <si>
-    <t>398,1.0,11.14,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,518,1.2,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,470,0.4,9.25,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.11,0.0</t>
-  </si>
-  <si>
-    <t>359,0.75,9.22,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,518,1.2,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>289,0.5,11.07,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,403,3.0,12.38,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.16,0.29,396,0.0,11.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>456,0.2,9.69,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.55,0.55,0.0,0.0,230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
+    <t>26.33,5.04,0.94,0.71,1.33,1.0,11.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.06,0.27,0.11,0.11,0.1,0.03,0.0,0.0,0.0,13.35,21.4,4.84,1.28,1.18,1.08,1.2,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.21,0.07,0.07,0.09,0.03,0.13,0.0,0.0,11.39</t>
+  </si>
+  <si>
+    <t>50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71,19.8,4.75,1.18,1.18,1.0,0.4,9.25,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.1,0.2,0.08,0.08,0.13,0.01,0.0,0.0,0.0,13.44</t>
+  </si>
+  <si>
+    <t>19.5,4.6,0.93,0.94,0.98,0.75,9.22,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.23,0.09,0.09,0.21,0.0,0.0,0.0,0.0,18.0,21.4,4.84,1.28,1.18,1.08,1.2,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.21,0.07,0.07,0.09,0.03,0.13,0.0,0.0,11.39</t>
+  </si>
+  <si>
+    <t>14.0,5.16,0.67,0.94,0.71,0.5,11.07,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.27,0.11,0.11,0.14,0.02,0.0,0.0,0.0,22.44,82.0,4.91,0.98,0.24,4.14,3.0,12.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.06,0.06,0.16,0.01,0.0,0.0,0.0,17.0</t>
+  </si>
+  <si>
+    <t>16.75,5.34,0.8,0.94,0.85,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.16,0.04,0.04,0.09,0.01,0.0,0.29,0.29,12.06,27.33,4.83,0.98,0.71,1.38,0.0,11.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.24,0.04,0.04,0.15,0.01,0.13,0.0,0.0,9.16</t>
+  </si>
+  <si>
+    <t>19.6,4.65,1.17,1.18,0.99,0.2,9.69,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.23,0.04,0.04,0.15,0.01,0.0,0.0,0.0,15.29,50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71</t>
   </si>
 </sst>
 </file>
